--- a/src/static/enriched_data/enriched_data.xlsx
+++ b/src/static/enriched_data/enriched_data.xlsx
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15093850.10196759</v>
+        <v>15096506.17915445</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2480477522.312798</v>
+        <v>2285253833.838017</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>164.3369654233846</v>
+        <v>151.3763387845023</v>
       </c>
       <c r="J2" t="n">
-        <v>122123189.4238789</v>
+        <v>206391229.1568677</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.932719168754695</v>
+        <v>-9.035251051536573</v>
       </c>
       <c r="L2" t="n">
-        <v>167.2506526747946</v>
+        <v>160.3489168614322</v>
       </c>
       <c r="M2" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="3">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8530769996.221781</v>
+        <v>8537381523.817804</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1558994329.648113</v>
+        <v>1509418092.410245</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -587,19 +587,19 @@
         <v>10000000000</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1827495443363942</v>
+        <v>0.1768010587554547</v>
       </c>
       <c r="J3" t="n">
-        <v>27980041.62140938</v>
+        <v>80245498.92810749</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.020372844626288</v>
+        <v>-6.495347854005003</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1836149137983526</v>
+        <v>0.1874739495398206</v>
       </c>
       <c r="M3" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="4">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>604031596.593968</v>
+        <v>604422794.1445551</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3195108080.106734</v>
+        <v>3083077512.117356</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.289637327125615</v>
+        <v>5.100862412842757</v>
       </c>
       <c r="J4" t="n">
-        <v>42262851.02063064</v>
+        <v>90399090.1278228</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.5549697913016572</v>
+        <v>-5.682685709392784</v>
       </c>
       <c r="L4" t="n">
-        <v>5.257185852523153</v>
+        <v>5.317628814344857</v>
       </c>
       <c r="M4" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="5">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1540384598.042386</v>
+        <v>1419970173.104204</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -689,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3335672382662457</v>
+        <v>0.3074917326911489</v>
       </c>
       <c r="J5" t="n">
-        <v>59515724.31166298</v>
+        <v>126219617.4180657</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0389081905929188</v>
+        <v>-7.959572750167268</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3322395408090533</v>
+        <v>0.3241460492829289</v>
       </c>
       <c r="M5" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="6">
@@ -717,11 +717,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>414844783.0787662</v>
+        <v>414902635.884638</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8051635600.150704</v>
+        <v>7491642400.823088</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -740,19 +740,19 @@
         <v>715748719</v>
       </c>
       <c r="I6" t="n">
-        <v>19.40879077807265</v>
+        <v>18.056386614295</v>
       </c>
       <c r="J6" t="n">
-        <v>123599458.8422985</v>
+        <v>277512231.3143471</v>
       </c>
       <c r="K6" t="n">
-        <v>-3.220350369380812</v>
+        <v>-8.75340146302049</v>
       </c>
       <c r="L6" t="n">
-        <v>19.62689328475417</v>
+        <v>19.24998547876686</v>
       </c>
       <c r="M6" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="7">
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>796326003.0156102</v>
+        <v>706996649.343044</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7.409062179155287</v>
+        <v>6.577936819343543</v>
       </c>
       <c r="J7" t="n">
-        <v>89026323.62127636</v>
+        <v>141240952.2475507</v>
       </c>
       <c r="K7" t="n">
-        <v>-6.221468987513002</v>
+        <v>-8.384948147206748</v>
       </c>
       <c r="L7" t="n">
-        <v>7.540167525129615</v>
+        <v>7.051027343251814</v>
       </c>
       <c r="M7" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="8">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>87075359850.57246</v>
+        <v>85410795869.50671</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -842,19 +842,19 @@
         <v>144006830</v>
       </c>
       <c r="I8" t="n">
-        <v>604.66131954</v>
+        <v>593.1023956954452</v>
       </c>
       <c r="J8" t="n">
-        <v>255971674.4396049</v>
+        <v>796407551.4510291</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.2590069306687397</v>
+        <v>-3.023076744871894</v>
       </c>
       <c r="L8" t="n">
-        <v>605.3547296331083</v>
+        <v>602.8583017048007</v>
       </c>
       <c r="M8" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="9">
@@ -870,7 +870,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>864185142.9753559</v>
+        <v>833596261.6203269</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -893,19 +893,19 @@
         <v>580000000</v>
       </c>
       <c r="I9" t="n">
-        <v>2.263051181615919</v>
+        <v>2.182947740058857</v>
       </c>
       <c r="J9" t="n">
-        <v>3932386.223849468</v>
+        <v>24615531.47033431</v>
       </c>
       <c r="K9" t="n">
-        <v>1.007438578519714</v>
+        <v>-2.247916864418234</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="10">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19844090</v>
+        <v>19845709</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1645408213162.308</v>
+        <v>1639528365133.917</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -944,19 +944,19 @@
         <v>21000000</v>
       </c>
       <c r="I10" t="n">
-        <v>82916.78848273258</v>
+        <v>82613.7461319178</v>
       </c>
       <c r="J10" t="n">
-        <v>5718748127.152852</v>
+        <v>19458216229.54564</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4401747280786942</v>
+        <v>-3.162834766668406</v>
       </c>
       <c r="L10" t="n">
-        <v>82791.38422028972</v>
+        <v>85489.61479724778</v>
       </c>
       <c r="M10" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="11">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19849115.625</v>
+        <v>19850634.375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6056506018.194562</v>
+        <v>5858474421.047663</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -995,19 +995,19 @@
         <v>21000000</v>
       </c>
       <c r="I11" t="n">
-        <v>305.1272476123008</v>
+        <v>295.1278186064349</v>
       </c>
       <c r="J11" t="n">
-        <v>46157023.42974465</v>
+        <v>130848701.8898557</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.5820802661752306</v>
+        <v>-4.507866569704936</v>
       </c>
       <c r="L11" t="n">
-        <v>304.8533220603253</v>
+        <v>306.7222238186457</v>
       </c>
       <c r="M11" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="12">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19844753.125</v>
+        <v>19846218.75</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>633674877.0049849</v>
+        <v>607687878.8539023</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1046,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>31.93160796778543</v>
+        <v>30.61983174270425</v>
       </c>
       <c r="J12" t="n">
-        <v>6808570.823918828</v>
+        <v>21336112.56265872</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.3146607037735575</v>
+        <v>-5.45557091524111</v>
       </c>
       <c r="L12" t="n">
-        <v>31.92460538669369</v>
+        <v>31.75300840772145</v>
       </c>
       <c r="M12" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="13">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5500491881.54157</v>
+        <v>5394449264.133169</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1097,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.583743234617975</v>
+        <v>4.495374386777642</v>
       </c>
       <c r="J13" t="n">
-        <v>80862790.70387957</v>
+        <v>102975348.7022756</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.5105971018137577</v>
+        <v>-3.410144528908545</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="14">
@@ -1125,11 +1125,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8534124</v>
+        <v>8546962</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1945000796.773782</v>
+        <v>1820962687.457499</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1148,19 +1148,19 @@
         <v>21000000</v>
       </c>
       <c r="I14" t="n">
-        <v>227.9086637098057</v>
+        <v>213.0537947234934</v>
       </c>
       <c r="J14" t="n">
-        <v>51460517.53296171</v>
+        <v>99570571.73600414</v>
       </c>
       <c r="K14" t="n">
-        <v>1.176268481701576</v>
+        <v>-7.841474042792181</v>
       </c>
       <c r="L14" t="n">
-        <v>228.5842286857286</v>
+        <v>225.0489583384514</v>
       </c>
       <c r="M14" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="15">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>662896208.4566578</v>
+        <v>623368561.8335109</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1199,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6.722668399e-07</v>
+        <v>6.321804346e-07</v>
       </c>
       <c r="J15" t="n">
-        <v>964178.793773192</v>
+        <v>3084385.420199719</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.3983042931841228</v>
+        <v>-4.688371340736024</v>
       </c>
       <c r="L15" t="n">
-        <v>6.754789241e-07</v>
+        <v>6.598273811e-07</v>
       </c>
       <c r="M15" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="16">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>885864781.8351067</v>
+        <v>866119281.4611833</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1250,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.13726704124e-05</v>
+        <v>1.11191790529e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>44949292.48454189</v>
+        <v>169405501.2888673</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0180219692934258</v>
+        <v>-11.47491546182478</v>
       </c>
       <c r="L16" t="n">
-        <v>1.13374521846e-05</v>
+        <v>1.21616345354e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="17">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35242104181.18973</v>
+        <v>35268011575.20344</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>23723258891.01</v>
+        <v>22667528163.29645</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1301,19 +1301,19 @@
         <v>45000000000</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6731510345988975</v>
+        <v>0.6427220348094062</v>
       </c>
       <c r="J17" t="n">
-        <v>229640964.08859</v>
+        <v>517803627.6003991</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0674625960801444</v>
+        <v>-5.206027623518024</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6739562499198983</v>
+        <v>0.675985217124384</v>
       </c>
       <c r="M17" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="18">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>579488884.7562951</v>
+        <v>584318047.263137</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1914708485.38589</v>
+        <v>1705606928.616612</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1352,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.304133238364225</v>
+        <v>2.918970133825976</v>
       </c>
       <c r="J18" t="n">
-        <v>31978362.77837524</v>
+        <v>60623724.66741421</v>
       </c>
       <c r="K18" t="n">
-        <v>2.207619820949211</v>
+        <v>-7.344581452794278</v>
       </c>
       <c r="L18" t="n">
-        <v>3.243351783700165</v>
+        <v>3.089847364993364</v>
       </c>
       <c r="M18" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="19">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8958597212.633591</v>
+        <v>8497966177.631245</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1403,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>13.63353768903765</v>
+        <v>12.93253166907855</v>
       </c>
       <c r="J19" t="n">
-        <v>135506293.4273733</v>
+        <v>396218714.0103962</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.4597095166511734</v>
+        <v>-7.846179873726003</v>
       </c>
       <c r="L19" t="n">
-        <v>13.61203016272179</v>
+        <v>13.70445832165414</v>
       </c>
       <c r="M19" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="20">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1683788927.313354</v>
+        <v>1639056684.249118</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.30709032385755</v>
+        <v>4.192666355305965</v>
       </c>
       <c r="J20" t="n">
-        <v>49927884.35096152</v>
+        <v>72092326.39662719</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.529839345319327</v>
+        <v>-4.318025022013916</v>
       </c>
       <c r="L20" t="n">
-        <v>4.296235338607461</v>
+        <v>4.382955938903192</v>
       </c>
       <c r="M20" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="21">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2769337703.796009</v>
+        <v>2550846518.800735</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1505,19 +1505,19 @@
         <v>30263013692</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1042218684660437</v>
+        <v>0.0959991228209915</v>
       </c>
       <c r="J21" t="n">
-        <v>42910391.4781206</v>
+        <v>55193668.38415601</v>
       </c>
       <c r="K21" t="n">
-        <v>3.432657254862692</v>
+        <v>-7.469327507535235</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1050045024148143</v>
+        <v>0.1040418566991901</v>
       </c>
       <c r="M21" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="22">
@@ -1533,11 +1533,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1307661214</v>
+        <v>1308683113</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>627354773.718819</v>
+        <v>646436402.9773983</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1556,19 +1556,19 @@
         <v>3030303030.299</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4797532931330171</v>
+        <v>0.4939594593648572</v>
       </c>
       <c r="J22" t="n">
-        <v>37143185.29607088</v>
+        <v>113413935.9443063</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.551868007632721</v>
+        <v>-8.779768620235577</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4827899417720555</v>
+        <v>0.523245745737979</v>
       </c>
       <c r="M22" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="23">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1474887064.736172</v>
+        <v>1216907074.778836</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1607,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>17.61409293985622</v>
+        <v>14.53312245175682</v>
       </c>
       <c r="J23" t="n">
-        <v>6225800.801322987</v>
+        <v>36808371.90649818</v>
       </c>
       <c r="K23" t="n">
-        <v>1.021355864683461</v>
+        <v>5.901703388604293</v>
       </c>
       <c r="L23" t="n">
-        <v>17.58655423956129</v>
+        <v>14.42026119102921</v>
       </c>
       <c r="M23" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="24">
@@ -1639,7 +1639,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>148644126383.7052</v>
+        <v>148690796383.7052</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>25192339632.77584</v>
+        <v>24483399831.01411</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1694808953819348</v>
+        <v>0.1646598204224643</v>
       </c>
       <c r="J24" t="n">
-        <v>441209058.9153757</v>
+        <v>1210105392.528667</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.7349720309518281</v>
+        <v>-5.488255055432653</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1695603448885122</v>
+        <v>0.1720568712245129</v>
       </c>
       <c r="M24" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="25">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1555708008.4996</v>
+        <v>1556419102.7764</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>939381108.326044</v>
+        <v>1243476602.128556</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1709,19 +1709,19 @@
         <v>2100000000</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6038286768427892</v>
+        <v>0.7989342972663305</v>
       </c>
       <c r="J25" t="n">
-        <v>131003662.0506341</v>
+        <v>618718409.6060722</v>
       </c>
       <c r="K25" t="n">
-        <v>8.990504936101125</v>
+        <v>16.0624682909018</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5883888384081505</v>
+        <v>0.7970777844200969</v>
       </c>
       <c r="M25" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="26">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1944153476.284928</v>
+        <v>1776662918.48672</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3677972878576275</v>
+        <v>0.3361112231248893</v>
       </c>
       <c r="J26" t="n">
-        <v>73281963.46259069</v>
+        <v>184509737.1108449</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.372054850441716</v>
+        <v>-9.346741108744897</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3672500959010286</v>
+        <v>0.3624869361772366</v>
       </c>
       <c r="M26" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="27">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5247255782.710276</v>
+        <v>5260950968.360694</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5246902513.331624</v>
+        <v>5258656650.563245</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1811,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9999326754034336</v>
+        <v>0.9995638967534108</v>
       </c>
       <c r="J27" t="n">
-        <v>35500615.26591934</v>
+        <v>60069868.12997163</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0317504921038749</v>
+        <v>-0.0444959274790329</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="28">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>120654453.5456346</v>
+        <v>120661946.5561552</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>219447239944.2114</v>
+        <v>217027307344.3245</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1862,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1818.807623717022</v>
+        <v>1798.639202653022</v>
       </c>
       <c r="J28" t="n">
-        <v>4766428019.345941</v>
+        <v>11636134272.01865</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.356393343573185</v>
+        <v>-5.812823349992104</v>
       </c>
       <c r="L28" t="n">
-        <v>1825.853509342478</v>
+        <v>1873.245639369356</v>
       </c>
       <c r="M28" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="29">
@@ -1894,7 +1894,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>151321540.2914661</v>
+        <v>151367967.6932335</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2518538271.218329</v>
+        <v>2431759469.258697</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1913,19 +1913,19 @@
         <v>210700000</v>
       </c>
       <c r="I29" t="n">
-        <v>16.64362037530993</v>
+        <v>16.06521846277918</v>
       </c>
       <c r="J29" t="n">
-        <v>22073494.22134497</v>
+        <v>65186288.1192406</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.3173136843331806</v>
+        <v>-4.875504741427033</v>
       </c>
       <c r="L29" t="n">
-        <v>16.67547701895941</v>
+        <v>16.62574949281566</v>
       </c>
       <c r="M29" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="30">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>569792890.0385989</v>
+        <v>537733564.046931</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1964,19 +1964,19 @@
         <v>100000000</v>
       </c>
       <c r="I30" t="n">
-        <v>16.00568620189179</v>
+        <v>15.10512826121263</v>
       </c>
       <c r="J30" t="n">
-        <v>23906502.02000309</v>
+        <v>54278468.8067642</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.1551305279985365</v>
+        <v>-7.782119749011029</v>
       </c>
       <c r="L30" t="n">
-        <v>15.91875899961667</v>
+        <v>16.05745486500942</v>
       </c>
       <c r="M30" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="31">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1409566141.783716</v>
+        <v>1354992622.087925</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2015,19 +2015,19 @@
         <v>3175000000</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4894326881193458</v>
+        <v>0.4704835493360852</v>
       </c>
       <c r="J31" t="n">
-        <v>77462959.72944854</v>
+        <v>156344674.3284973</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.093532290467274</v>
+        <v>-7.176278640013117</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4903278303471255</v>
+        <v>0.4920631421067934</v>
       </c>
       <c r="M31" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="32">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1193721337.899964</v>
+        <v>1087206379.665458</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2066,19 +2066,19 @@
         <v>2630547141</v>
       </c>
       <c r="I32" t="n">
-        <v>0.473698943611097</v>
+        <v>0.4314311030418484</v>
       </c>
       <c r="J32" t="n">
-        <v>54021847.38931548</v>
+        <v>83558730.93928134</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.6745263403410042</v>
+        <v>-7.918796811634947</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4728618706686799</v>
+        <v>0.4564764069373379</v>
       </c>
       <c r="M32" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="33">
@@ -2094,11 +2094,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>646143249</v>
+        <v>647135072</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1783390606.682522</v>
+        <v>1748026602.933024</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2117,19 +2117,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.760054538126919</v>
+        <v>2.701177356267632</v>
       </c>
       <c r="J33" t="n">
-        <v>49786355.02851873</v>
+        <v>123753603.4866048</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.7617960895567618</v>
+        <v>-4.946848743030269</v>
       </c>
       <c r="L33" t="n">
-        <v>2.750062024007443</v>
+        <v>2.779894825142768</v>
       </c>
       <c r="M33" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="34">
@@ -2145,11 +2145,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2588088088.167816</v>
+        <v>2601315490.163333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2583960590.510273</v>
+        <v>2550174963.298119</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9984051942913332</v>
+        <v>0.9803405134599787</v>
       </c>
       <c r="J34" t="n">
-        <v>1029775613.133907</v>
+        <v>4154241194.444836</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0191701432646542</v>
+        <v>-1.648983491992384</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9986211944078144</v>
+        <v>0.9719757358097704</v>
       </c>
       <c r="M34" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="35">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>811028179.4564723</v>
+        <v>790584621.3156202</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2219,19 +2219,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0132991055181932</v>
+        <v>0.0129638754438637</v>
       </c>
       <c r="J35" t="n">
-        <v>7970869.967032794</v>
+        <v>9619412.273185279</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.4677425020187143</v>
+        <v>-4.934146522422909</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0134506247341788</v>
+        <v>0.0132479430176268</v>
       </c>
       <c r="M35" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="36">
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1572540589.319017</v>
+        <v>1574016688.191111</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>601698908.446556</v>
+        <v>580342144.3433431</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2270,19 +2270,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3826285391508524</v>
+        <v>0.3687013922389114</v>
       </c>
       <c r="J36" t="n">
-        <v>7453219.879541861</v>
+        <v>14874825.86397926</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.057042922412013</v>
+        <v>-5.823438499218578</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3822625240252177</v>
+        <v>0.3842730029677338</v>
       </c>
       <c r="M36" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="37">
@@ -2298,11 +2298,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>43759808799.60193</v>
+        <v>43804947221.80908</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>680364927.73103</v>
+        <v>634539418.3257244</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2321,19 +2321,19 @@
         <v>50000000000</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0155477125333605</v>
+        <v>0.0144855651831446</v>
       </c>
       <c r="J37" t="n">
-        <v>34356457.66361851</v>
+        <v>50670420.24572248</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1932679511775867</v>
+        <v>-8.943127268042366</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0153649025618433</v>
+        <v>0.0154744640979484</v>
       </c>
       <c r="M37" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="38">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>85826628.27673994</v>
+        <v>85828689.43341725</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1912748173.46354</v>
+        <v>1910046998.573512</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>22.28618567300654</v>
+        <v>22.25417877381498</v>
       </c>
       <c r="J38" t="n">
-        <v>6706613.914586122</v>
+        <v>13883428.04205544</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.1531652724035264</v>
+        <v>-2.845874060863446</v>
       </c>
       <c r="L38" t="n">
-        <v>22.37559882907276</v>
+        <v>22.69108905549081</v>
       </c>
       <c r="M38" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="39">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7199344865.450047</v>
+        <v>6808477142.708096</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2423,1702 +2423,1702 @@
         <v>50000000000</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1705221994890443</v>
+        <v>0.1612641871230726</v>
       </c>
       <c r="J39" t="n">
-        <v>92383783.27165936</v>
+        <v>209158732.5758689</v>
       </c>
       <c r="K39" t="n">
-        <v>0.6388590766725307</v>
+        <v>-5.425098967799477</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1711704604492137</v>
+        <v>0.1681223451443682</v>
       </c>
       <c r="M39" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>179760925.5581076</v>
+        <v>333928180</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>577243810.8613765</v>
+        <v>3964069991.407324</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>223000000</v>
+        <v>1000000000</v>
       </c>
       <c r="I40" t="n">
-        <v>3.211175115332741</v>
+        <v>11.8710256541012</v>
       </c>
       <c r="J40" t="n">
-        <v>4658879.264995498</v>
+        <v>37118853.25596793</v>
       </c>
       <c r="K40" t="n">
-        <v>3.583928048113322</v>
+        <v>-10.78061635634239</v>
       </c>
       <c r="L40" t="n">
-        <v>3.203807671918567</v>
+        <v>13.44848163445684</v>
       </c>
       <c r="M40" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>immutable x</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>333928180</v>
+        <v>1768317543.39</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4201769039.529313</v>
+        <v>849353385.9087651</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="I41" t="n">
-        <v>12.58285251496089</v>
+        <v>0.4803172309654802</v>
       </c>
       <c r="J41" t="n">
-        <v>16980719.64358361</v>
+        <v>20185722.7658891</v>
       </c>
       <c r="K41" t="n">
-        <v>-2.478254604654845</v>
+        <v>-9.195470740946849</v>
       </c>
       <c r="L41" t="n">
-        <v>12.71011632570181</v>
+        <v>0.5115406053816249</v>
       </c>
       <c r="M41" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>immutable x</t>
+          <t>injective</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1768317543.39</v>
+        <v>98970935.41</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>971463395.1974064</v>
+        <v>827402248.4369071</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2000000000</v>
+        <v>100000000</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5493715757267423</v>
+        <v>8.360052827724479</v>
       </c>
       <c r="J42" t="n">
-        <v>9721440.985604167</v>
+        <v>57879859.31465697</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.942416033378462</v>
+        <v>-6.815260541630016</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5506830042304253</v>
+        <v>8.769231918013302</v>
       </c>
       <c r="M42" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>injective</t>
+          <t>internet computer</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>98970935.41</v>
+        <v>482284285.8834832</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>870536980.8628373</v>
+        <v>2448383745.129295</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>100000000</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>8.795885148064169</v>
+        <v>5.076640099612967</v>
       </c>
       <c r="J43" t="n">
-        <v>45836680.44661749</v>
+        <v>43870906.84172429</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0935746096683801</v>
+        <v>-6.717813180756869</v>
       </c>
       <c r="L43" t="n">
-        <v>8.778471950492545</v>
+        <v>5.269074340812685</v>
       </c>
       <c r="M43" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>internet computer</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>482076932.8747825</v>
+        <v>3707948285</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2591823755.868845</v>
+        <v>601775482.3818355</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>5.376369577388721</v>
+        <v>0.1622933860259692</v>
       </c>
       <c r="J44" t="n">
-        <v>30484427.32775503</v>
+        <v>24872663.83196933</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.7841230571003333</v>
+        <v>-7.158572374744081</v>
       </c>
       <c r="L44" t="n">
-        <v>5.360908258260871</v>
+        <v>0.1719086823078441</v>
       </c>
       <c r="M44" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3688810566</v>
+        <v>311886262.1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>637384765.0071368</v>
+        <v>654917431.1518688</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1727886953268765</v>
+        <v>2.099859823071921</v>
       </c>
       <c r="J45" t="n">
-        <v>8655888.571702132</v>
+        <v>31753863.87631932</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.5656167906202642</v>
+        <v>-8.657252674208319</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1734645905410681</v>
+        <v>2.248439391185282</v>
       </c>
       <c r="M45" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>310420802.2</v>
+        <v>2690911111.1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>685468164.5941108</v>
+        <v>1025229816.153528</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3000000000</v>
       </c>
       <c r="I46" t="n">
-        <v>2.20819017197331</v>
+        <v>0.3809972807813897</v>
       </c>
       <c r="J46" t="n">
-        <v>13202182.74112785</v>
+        <v>83981899.12279856</v>
       </c>
       <c r="K46" t="n">
-        <v>4.043109806189955</v>
+        <v>-10.56412877295929</v>
       </c>
       <c r="L46" t="n">
-        <v>2.177736278612945</v>
+        <v>0.4053061703516297</v>
       </c>
       <c r="M46" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2690911111.1</v>
+        <v>5966455361.82</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1300386060.123636</v>
+        <v>614087519.9211075</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>JUP</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>3000000000</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4832512135980812</v>
+        <v>0.102923341026017</v>
       </c>
       <c r="J47" t="n">
-        <v>29010225.60290178</v>
+        <v>13233301.68416004</v>
       </c>
       <c r="K47" t="n">
-        <v>4.560114934655621</v>
+        <v>-1.857366922713082</v>
       </c>
       <c r="L47" t="n">
-        <v>0.4759175240221405</v>
+        <v>0.1058577877482666</v>
       </c>
       <c r="M47" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5966455361.82</v>
+        <v>25960683651.37431</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>615611382.4723363</v>
+        <v>1634301649.713906</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>28704026601</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1031787460292925</v>
+        <v>0.0629529511495507</v>
       </c>
       <c r="J48" t="n">
-        <v>4330615.331622533</v>
+        <v>77007554.69869666</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0930973003800359</v>
+        <v>-8.459292236299413</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1030482548852833</v>
+        <v>0.0662283556835476</v>
       </c>
       <c r="M48" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>kucoin token</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>25942485466.10235</v>
+        <v>125043917.8513356</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1673393918.462027</v>
+        <v>1332707105.008601</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>28704026601</v>
+        <v>200000000</v>
       </c>
       <c r="I49" t="n">
-        <v>0.06450399367664909</v>
+        <v>10.65791225921962</v>
       </c>
       <c r="J49" t="n">
-        <v>35402740.17322244</v>
+        <v>1441370.817486463</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.3671223566536879</v>
+        <v>-2.282839311617566</v>
       </c>
       <c r="L49" t="n">
-        <v>0.06460497660804219</v>
+        <v>10.83873797875412</v>
       </c>
       <c r="M49" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>kucoin token</t>
+          <t>lido dao</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>122543917.8513356</v>
+        <v>897877243.8587133</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1358654517.041746</v>
+        <v>736136852.886333</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>200000000</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>11.08708241799483</v>
+        <v>0.8198635814877261</v>
       </c>
       <c r="J50" t="n">
-        <v>494999.2220712987</v>
+        <v>48053255.84772823</v>
       </c>
       <c r="K50" t="n">
-        <v>0.3335320410502523</v>
+        <v>-9.0610562952472</v>
       </c>
       <c r="L50" t="n">
-        <v>11.06594195161742</v>
+        <v>0.8705865640083251</v>
       </c>
       <c r="M50" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>lido dao</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>897877243.8587133</v>
+        <v>75558468.3040892</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>http://explorer.litecoin.net/chain/Litecoin</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>780317062.593581</v>
+        <v>6198760373.188729</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>84000000</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8690687596002477</v>
+        <v>82.03925400183444</v>
       </c>
       <c r="J51" t="n">
-        <v>27353309.97461185</v>
+        <v>380928653.6802415</v>
       </c>
       <c r="K51" t="n">
-        <v>-1.900074249671336</v>
+        <v>-3.112010644396956</v>
       </c>
       <c r="L51" t="n">
-        <v>0.8710360125130018</v>
+        <v>84.15151389517649</v>
       </c>
       <c r="M51" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>75558468.3040892</v>
+        <v>848074.4183746701</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://explorer.litecoin.net/chain/Litecoin</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>6524123028.593897</v>
+        <v>1087845997.633965</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>84000000</v>
+        <v>1000000</v>
       </c>
       <c r="I52" t="n">
-        <v>86.3453584360287</v>
+        <v>1282.724692626404</v>
       </c>
       <c r="J52" t="n">
-        <v>167438391.2111418</v>
+        <v>43115763.75098969</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0174456870136912</v>
+        <v>-7.398641994174008</v>
       </c>
       <c r="L52" t="n">
-        <v>85.72835581996083</v>
+        <v>1365.379995318378</v>
       </c>
       <c r="M52" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>848074.4183746701</v>
+        <v>3364694382.836841</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1083807750.822358</v>
+        <v>2612596235.787368</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1000000</v>
+        <v>6219316795</v>
       </c>
       <c r="I53" t="n">
-        <v>1277.963026994105</v>
+        <v>0.7764735629821558</v>
       </c>
       <c r="J53" t="n">
-        <v>27725609.64235359</v>
+        <v>163771963.7224364</v>
       </c>
       <c r="K53" t="n">
-        <v>-4.814164831002418</v>
+        <v>-3.1730253716361</v>
       </c>
       <c r="L53" t="n">
-        <v>1305.98675669954</v>
+        <v>0.7933856661937005</v>
       </c>
       <c r="M53" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>mantra</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3364694382.836841</v>
+        <v>974778351.8199997</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2699772651.669368</v>
+        <v>6115177710.771641</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>6219316795</v>
+        <v>888888888</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8023827261818461</v>
+        <v>6.27340328122188</v>
       </c>
       <c r="J54" t="n">
-        <v>64145981.91123798</v>
+        <v>66493161.44447893</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.4899709235006019</v>
+        <v>0.0254139703045069</v>
       </c>
       <c r="L54" t="n">
-        <v>0.8078779220109429</v>
+        <v>6.27044371781142</v>
       </c>
       <c r="M54" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mantra</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>974778351.8199997</v>
+        <v>18446744.07370955</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+          <t>http://moneroblocks.info/</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6075993196.303693</v>
+        <v>3940688577.432065</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>888888888</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>6.233204897256142</v>
+        <v>213.6251558370329</v>
       </c>
       <c r="J55" t="n">
-        <v>33764378.24562574</v>
+        <v>57335102.35129624</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.1291820518119847</v>
+        <v>-1.588928329821728</v>
       </c>
       <c r="L55" t="n">
-        <v>6.220298324111117</v>
+        <v>217.656319635422</v>
       </c>
       <c r="M55" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>18446744.07370955</v>
+        <v>2450000000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://moneroblocks.info/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4008181468.86502</v>
+        <v>931613473.4540864</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>MOVE</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I56" t="n">
-        <v>217.2839528129797</v>
+        <v>0.3802503973281985</v>
       </c>
       <c r="J56" t="n">
-        <v>30438828.42032219</v>
+        <v>87621597.75756431</v>
       </c>
       <c r="K56" t="n">
-        <v>0.473484278675244</v>
+        <v>-8.246693714780585</v>
       </c>
       <c r="L56" t="n">
-        <v>215.9741347888256</v>
+        <v>0.4028765948446518</v>
       </c>
       <c r="M56" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>dai</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2450000000</v>
+        <v>5365382702.664872</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1069253786.784113</v>
+        <v>5362386872.32885</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>MOVE</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>10000000000</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.4364301170547399</v>
+        <v>0.9994416371576748</v>
       </c>
       <c r="J57" t="n">
-        <v>43209029.27620861</v>
+        <v>133002634.1544962</v>
       </c>
       <c r="K57" t="n">
-        <v>-3.839140865497989</v>
+        <v>0.00953954366571</v>
       </c>
       <c r="L57" t="n">
-        <v>0.4495629172750414</v>
+        <v>0.999701602633154</v>
       </c>
       <c r="M57" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>dai</t>
+          <t>near protocol</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>5365382702.664872</v>
+        <v>1199000741</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5361791683.717277</v>
+        <v>2931520640.878872</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9993307059073696</v>
+        <v>2.444969832490597</v>
       </c>
       <c r="J58" t="n">
-        <v>63905023.09462439</v>
+        <v>139662458.0853478</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.0221042281542629</v>
+        <v>-7.78821603901056</v>
       </c>
       <c r="L58" t="n">
-        <v>0.9994919559425324</v>
+        <v>2.607478124935529</v>
       </c>
       <c r="M58" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>near protocol</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1198396448</v>
+        <v>646145839.5746847</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3160198965.96925</v>
+        <v>670432227.1842363</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>2.637022974528417</v>
+        <v>1.037586541802293</v>
       </c>
       <c r="J59" t="n">
-        <v>91849522.0372694</v>
+        <v>5769068.598505266</v>
       </c>
       <c r="K59" t="n">
-        <v>1.793038679004598</v>
+        <v>-4.604250383821361</v>
       </c>
       <c r="L59" t="n">
-        <v>2.638998022480792</v>
+        <v>1.061992902576746</v>
       </c>
       <c r="M59" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>trump official</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>646145839.5746847</v>
+        <v>199999427.480758</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>704079373.1665961</v>
+        <v>1846478192.707925</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>TRUMP</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>999999993.45</v>
       </c>
       <c r="I60" t="n">
-        <v>1.089660151073704</v>
+        <v>9.23241739222266</v>
       </c>
       <c r="J60" t="n">
-        <v>3188781.024541676</v>
+        <v>207761439.6382333</v>
       </c>
       <c r="K60" t="n">
-        <v>0.4984862122315703</v>
+        <v>-11.36811831782191</v>
       </c>
       <c r="L60" t="n">
-        <v>1.076396855354968</v>
+        <v>10.09329724307034</v>
       </c>
       <c r="M60" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>trump official</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>199999429.103735</v>
+        <v>60000000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2035525360.106597</v>
+        <v>2830881507.077088</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>TRUMP</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>999999993.45</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>10.17765585246155</v>
+        <v>47.18135845128481</v>
       </c>
       <c r="J61" t="n">
-        <v>67817765.57616788</v>
+        <v>3206733.716289033</v>
       </c>
       <c r="K61" t="n">
-        <v>1.387957476092353</v>
+        <v>-2.29870733947952</v>
       </c>
       <c r="L61" t="n">
-        <v>10.09671962233979</v>
+        <v>47.44438048652487</v>
       </c>
       <c r="M61" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>ondo</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>60000000</v>
+        <v>3159107529</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2912819056.666005</v>
+        <v>2500019195.704441</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>48.54698427776676</v>
+        <v>0.7913688194386373</v>
       </c>
       <c r="J62" t="n">
-        <v>2096408.264171746</v>
+        <v>263172550.7415073</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0806682787645802</v>
+        <v>-3.799509395465275</v>
       </c>
       <c r="L62" t="n">
-        <v>48.41439203528941</v>
+        <v>0.8327282311500948</v>
       </c>
       <c r="M62" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>optimism-ethereum</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ondo</t>
+          <t>optimism</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3159107529</v>
+        <v>1620705846</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2527930536.210728</v>
+        <v>1142899077.502805</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8002040174336619</v>
+        <v>0.7051860029526941</v>
       </c>
       <c r="J63" t="n">
-        <v>80384786.52693705</v>
+        <v>103082744.9633326</v>
       </c>
       <c r="K63" t="n">
-        <v>0.7139311027876482</v>
+        <v>-6.911462399149467</v>
       </c>
       <c r="L63" t="n">
-        <v>0.7984788449640853</v>
+        <v>0.7286243291874472</v>
       </c>
       <c r="M63" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>optimism-ethereum</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1620705846</v>
+        <v>295394509.7510309</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1220425171.5659</v>
+        <v>534180343.4006736</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>450000000</v>
       </c>
       <c r="I64" t="n">
-        <v>0.753020774607547</v>
+        <v>1.808362463645313</v>
       </c>
       <c r="J64" t="n">
-        <v>54594539.07196197</v>
+        <v>51409028.96500645</v>
       </c>
       <c r="K64" t="n">
-        <v>-3.307066484446167</v>
+        <v>-5.292126898256672</v>
       </c>
       <c r="L64" t="n">
-        <v>0.7640222375971435</v>
+        <v>1.879522899500804</v>
       </c>
       <c r="M64" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>pax gold</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>301835405.9816226</v>
+        <v>210371.22</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>602971122.7621006</v>
+        <v>667778818.3984549</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>450000000</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1.997681884937027</v>
+        <v>3174.287901160886</v>
       </c>
       <c r="J65" t="n">
-        <v>41263298.86208708</v>
+        <v>46514267.27037357</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.2616449056017938</v>
+        <v>1.272386404231119</v>
       </c>
       <c r="L65" t="n">
-        <v>2.007110906676997</v>
+        <v>3139.868377735496</v>
       </c>
       <c r="M65" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pax gold</t>
+          <t>paypal usd</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>210371.22</v>
+        <v>739265391.674938</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>658968358.7340297</v>
+        <v>737713939.0131669</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3132.407364153849</v>
+        <v>0.997901358998754</v>
       </c>
       <c r="J66" t="n">
-        <v>43893164.41267565</v>
+        <v>10969382.0682096</v>
       </c>
       <c r="K66" t="n">
-        <v>0.7502458435500204</v>
+        <v>-0.0982497072724397</v>
       </c>
       <c r="L66" t="n">
-        <v>3120.189237510548</v>
+        <v>0.9984498018536392</v>
       </c>
       <c r="M66" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>paypal usd</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>802871349.4263151</v>
+        <v>420689899653543.6</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>801668858.5420231</v>
+        <v>2977160679.524661</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PYUSD</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>420690000000000</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9985022620558685</v>
+        <v>7.0768532403e-06</v>
       </c>
       <c r="J67" t="n">
-        <v>7516012.099210759</v>
+        <v>857327383.0086402</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0137574419923531</v>
+        <v>-8.56607718451925</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9984522729690972</v>
+        <v>7.5063694375e-06</v>
       </c>
       <c r="M67" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>420689899653543.6</v>
+        <v>6794101040.343596</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2967439521.620103</v>
+        <v>4455351871.321973</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>420690000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="I68" t="n">
-        <v>7.0537455833e-06</v>
+        <v>0.6557676791772667</v>
       </c>
       <c r="J68" t="n">
-        <v>299995079.3028432</v>
+        <v>102747781.7607116</v>
       </c>
       <c r="K68" t="n">
-        <v>-3.852485833207965</v>
+        <v>-7.50397026541286</v>
       </c>
       <c r="L68" t="n">
-        <v>7.1753556832e-06</v>
+        <v>0.9351907533812548</v>
       </c>
       <c r="M68" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>6773814332.260494</v>
+        <v>1522267060</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://blockexplorer.minepi.com/</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5167207446.90474</v>
+        <v>6042437419.121837</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>100000000000</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7628209445150806</v>
+        <v>3.969367516315985</v>
       </c>
       <c r="J69" t="n">
-        <v>85907964.90476215</v>
+        <v>166647428.8715563</v>
       </c>
       <c r="K69" t="n">
-        <v>-2.867991050326423</v>
+        <v>-5.041591966032305</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>4.115857797966297</v>
       </c>
       <c r="M69" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>pol (prev. matic)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1522267060</v>
+        <v>10392099602.65343</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>6207093548.684222</v>
+        <v>1935203355.764831</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>4.077532590558862</v>
+        <v>0.1862187074564521</v>
       </c>
       <c r="J70" t="n">
-        <v>71649168.26351921</v>
+        <v>77650619.51587778</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.2311142956699293</v>
+        <v>-7.899777852231545</v>
       </c>
       <c r="L70" t="n">
-        <v>4.08583090475994</v>
+        <v>0.1951577902823479</v>
       </c>
       <c r="M70" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pol (prev. matic)</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10392099602.65343</v>
+        <v>12072738</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2125677493.863783</v>
+        <v>800796059.1185056</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>14881364</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2045474519240588</v>
+        <v>66.33093993413139</v>
       </c>
       <c r="J71" t="n">
-        <v>34975271.91878357</v>
+        <v>20273237.41948415</v>
       </c>
       <c r="K71" t="n">
-        <v>0.651113068805253</v>
+        <v>-5.980282258143352</v>
       </c>
       <c r="L71" t="n">
-        <v>0.2027933698041628</v>
+        <v>68.94436600049748</v>
       </c>
       <c r="M71" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>raydium</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>raydium</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>12072738</v>
+        <v>290814662.067804</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>843429263.2225834</v>
+        <v>551352890.8105441</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>RAY</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>14881364</v>
+        <v>555000000</v>
       </c>
       <c r="I72" t="n">
-        <v>69.86230159410263</v>
+        <v>1.895890966742231</v>
       </c>
       <c r="J72" t="n">
-        <v>9068450.533891072</v>
+        <v>120346457.7353365</v>
       </c>
       <c r="K72" t="n">
-        <v>0.6280314888356847</v>
+        <v>5.03505853739414</v>
       </c>
       <c r="L72" t="n">
-        <v>69.54683484165275</v>
+        <v>1.897755625099468</v>
       </c>
       <c r="M72" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="73">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1827864130.96871</v>
+        <v>1717476317.117153</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4157,19 +4157,19 @@
         <v>644168762</v>
       </c>
       <c r="I73" t="n">
-        <v>3.530626922289658</v>
+        <v>3.317406376586157</v>
       </c>
       <c r="J73" t="n">
-        <v>43162292.16631509</v>
+        <v>108154873.7611594</v>
       </c>
       <c r="K73" t="n">
-        <v>-1.794118413937293</v>
+        <v>-10.23816291581076</v>
       </c>
       <c r="L73" t="n">
-        <v>3.52672897268326</v>
+        <v>3.605346836799468</v>
       </c>
       <c r="M73" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="74">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>872215392.1541442</v>
+        <v>806429664.2882833</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4208,19 +4208,19 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1786462271684566</v>
+        <v>0.1651720644897385</v>
       </c>
       <c r="J74" t="n">
-        <v>33186784.33447929</v>
+        <v>86287909.43742651</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.7946211490562297</v>
+        <v>-6.582862682929049</v>
       </c>
       <c r="L74" t="n">
-        <v>0.1793161245785532</v>
+        <v>0.170363420272955</v>
       </c>
       <c r="M74" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="75">
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>589250822785832.4</v>
+        <v>589250687620781.9</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>7426139533.025967</v>
+        <v>7130582238.954036</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4259,19 +4259,19 @@
         <v>589552695333683</v>
       </c>
       <c r="I75" t="n">
-        <v>1.26026799554e-05</v>
+        <v>1.21011012609e-05</v>
       </c>
       <c r="J75" t="n">
-        <v>76263835.48002025</v>
+        <v>179160700.839706</v>
       </c>
       <c r="K75" t="n">
-        <v>-1.467509906760561</v>
+        <v>-4.644632285239338</v>
       </c>
       <c r="L75" t="n">
-        <v>1.26341033021e-05</v>
+        <v>1.24948779869e-05</v>
       </c>
       <c r="M75" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="76">
@@ -4291,7 +4291,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>512293807.5507926</v>
+        <v>512503882.2685171</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>64173621326.06544</v>
+        <v>60990505066.92032</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4310,19 +4310,19 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>125.2672204508402</v>
+        <v>119.0049620638102</v>
       </c>
       <c r="J76" t="n">
-        <v>1030343021.093043</v>
+        <v>3399476275.70703</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.7470015985162058</v>
+        <v>-6.103722973609886</v>
       </c>
       <c r="L76" t="n">
-        <v>124.9818949943009</v>
+        <v>127.414223960994</v>
       </c>
       <c r="M76" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="77">
@@ -4338,11 +4338,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1519229293.83264</v>
+        <v>1519731982.98976</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>951776872.6014463</v>
+        <v>877228249.2018611</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4361,19 +4361,19 @@
         <v>1818000000</v>
       </c>
       <c r="I77" t="n">
-        <v>0.6264866511363459</v>
+        <v>0.5772256286112338</v>
       </c>
       <c r="J77" t="n">
-        <v>14007124.93442685</v>
+        <v>29027972.61364048</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.9162540514067228</v>
+        <v>-6.585986887534649</v>
       </c>
       <c r="L77" t="n">
-        <v>0.6192038847170982</v>
+        <v>0.6097112379450383</v>
       </c>
       <c r="M77" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="78">
@@ -4393,7 +4393,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>30787178407.49416</v>
+        <v>30777463547.83699</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>8265176800.009464</v>
+        <v>7968470554.041636</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4412,19 +4412,19 @@
         <v>50001806812</v>
       </c>
       <c r="I78" t="n">
-        <v>0.268461652789772</v>
+        <v>0.2589060187385602</v>
       </c>
       <c r="J78" t="n">
-        <v>53000727.59133879</v>
+        <v>130780348.6522674</v>
       </c>
       <c r="K78" t="n">
-        <v>0.2747258630171079</v>
+        <v>-5.267890233323442</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2676661239757318</v>
+        <v>0.2683813600779731</v>
       </c>
       <c r="M78" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="79">
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>9367578.04514548</v>
+        <v>9378159.597108899</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>17013824733.87183</v>
+        <v>16879794298.3194</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4463,19 +4463,19 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1816.245848380076</v>
+        <v>1799.904781266796</v>
       </c>
       <c r="J79" t="n">
-        <v>6260068.341951701</v>
+        <v>8071686.415306392</v>
       </c>
       <c r="K79" t="n">
-        <v>-1.406940242570069</v>
+        <v>-5.46229634098341</v>
       </c>
       <c r="L79" t="n">
-        <v>1832.988630283856</v>
+        <v>1844.008051445634</v>
       </c>
       <c r="M79" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="80">
@@ -4491,11 +4491,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>258745395</v>
+        <v>258992823</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1367199664.467321</v>
+        <v>1123963831.09167</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4514,19 +4514,19 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>5.283957476682128</v>
+        <v>4.339748947760109</v>
       </c>
       <c r="J80" t="n">
-        <v>36619597.73045329</v>
+        <v>130031223.4069393</v>
       </c>
       <c r="K80" t="n">
-        <v>0.7542216654266165</v>
+        <v>-5.476329018739941</v>
       </c>
       <c r="L80" t="n">
-        <v>5.32083666961821</v>
+        <v>4.346269016595579</v>
       </c>
       <c r="M80" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="81">
@@ -4542,11 +4542,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3169845047.483888</v>
+        <v>3249982900.458888</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>7482713340.319256</v>
+        <v>7499759647.185512</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4565,19 +4565,19 @@
         <v>10000000000</v>
       </c>
       <c r="I81" t="n">
-        <v>2.360592782369212</v>
+        <v>2.30763049434093</v>
       </c>
       <c r="J81" t="n">
-        <v>553534546.1655288</v>
+        <v>950035602.421998</v>
       </c>
       <c r="K81" t="n">
-        <v>2.173425127650815</v>
+        <v>-4.117106243270884</v>
       </c>
       <c r="L81" t="n">
-        <v>2.352404534085756</v>
+        <v>2.422450582971347</v>
       </c>
       <c r="M81" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="82">
@@ -4597,7 +4597,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>144182349120.787</v>
+        <v>144034280963.4801</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>144472528344.4948</v>
+        <v>143983896070.6564</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4616,19 +4616,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1.002012584934822</v>
+        <v>0.9996501881879324</v>
       </c>
       <c r="J82" t="n">
-        <v>18307782667.46886</v>
+        <v>43598985117.606</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0086347766169269</v>
+        <v>-0.1791141347037187</v>
       </c>
       <c r="L82" t="n">
-        <v>1.00028234256464</v>
+        <v>1.000001920585212</v>
       </c>
       <c r="M82" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="83">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>765659590.4938563</v>
+        <v>781997690.0747724</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4667,19 +4667,19 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>3105.821706989406</v>
+        <v>3172.095577204541</v>
       </c>
       <c r="J83" t="n">
-        <v>6025169.346618593</v>
+        <v>18621606.60657396</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.3050607673322401</v>
+        <v>1.143760251963453</v>
       </c>
       <c r="L83" t="n">
-        <v>3103.727941869877</v>
+        <v>3141.467374037427</v>
       </c>
       <c r="M83" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="84">
@@ -4695,11 +4695,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1036876078.864371</v>
+        <v>1037550271.786468</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>678818981.6070354</v>
+        <v>671528079.5623716</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4718,19 +4718,19 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.6546770587575959</v>
+        <v>0.6472246192043548</v>
       </c>
       <c r="J84" t="n">
-        <v>4993012.686908988</v>
+        <v>12713086.57310508</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.5271791681415638</v>
+        <v>-2.513915187306576</v>
       </c>
       <c r="L84" t="n">
-        <v>0.6547043856052576</v>
+        <v>0.6575912659797805</v>
       </c>
       <c r="M84" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="85">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>876926157.9498842</v>
+        <v>811294638.1934762</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4769,19 +4769,19 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0897093741246989</v>
+        <v>0.08299528251410671</v>
       </c>
       <c r="J85" t="n">
-        <v>8041436.379305072</v>
+        <v>17460462.0733827</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.4753013880346093</v>
+        <v>-8.082153603322231</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0894557249361637</v>
+        <v>0.0871543507481238</v>
       </c>
       <c r="M85" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="86">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>673989427.5158484</v>
+        <v>640375514.1572475</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4820,19 +4820,19 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2716212915879926</v>
+        <v>0.2580747073404595</v>
       </c>
       <c r="J86" t="n">
-        <v>13243734.26010669</v>
+        <v>30344471.81336081</v>
       </c>
       <c r="K86" t="n">
-        <v>0.157868697824937</v>
+        <v>-6.667223551153076</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2707712609779487</v>
+        <v>0.2698282551248925</v>
       </c>
       <c r="M86" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="87">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>828708154.0332394</v>
+        <v>774262814.1280754</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4871,19 +4871,19 @@
         <v>1000000000</v>
       </c>
       <c r="I87" t="n">
-        <v>0.8287081540332393</v>
+        <v>0.7742628141280753</v>
       </c>
       <c r="J87" t="n">
-        <v>9744910.28708552</v>
+        <v>19909220.01064276</v>
       </c>
       <c r="K87" t="n">
-        <v>-2.837298243767074</v>
+        <v>-7.393829533172084</v>
       </c>
       <c r="L87" t="n">
-        <v>0.8331764878724043</v>
+        <v>0.8156109411025807</v>
       </c>
       <c r="M87" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="88">
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2484528578.654807</v>
+        <v>2461769440.370948</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>9472862912.832815</v>
+        <v>9468226533.443558</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4922,19 +4922,19 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>3.812740571477625</v>
+        <v>3.846106129263207</v>
       </c>
       <c r="J88" t="n">
-        <v>116254527.9634561</v>
+        <v>140650888.8277465</v>
       </c>
       <c r="K88" t="n">
-        <v>3.18637330898849</v>
+        <v>-5.358070017423121</v>
       </c>
       <c r="L88" t="n">
-        <v>3.765567285909482</v>
+        <v>4.012363677399273</v>
       </c>
       <c r="M88" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="89">
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>94994605853.76372</v>
+        <v>94985541388.86099</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>21915590545.01772</v>
+        <v>22176014805.13853</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4973,19 +4973,19 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2307035262481634</v>
+        <v>0.2334672675534081</v>
       </c>
       <c r="J89" t="n">
-        <v>237089279.7413524</v>
+        <v>360646827.685981</v>
       </c>
       <c r="K89" t="n">
-        <v>-1.639515360826401</v>
+        <v>-1.87274892170533</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2320953549970309</v>
+        <v>0.2377132718794603</v>
       </c>
       <c r="M89" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="90">
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3749159627.741323</v>
+        <v>3686577654.525324</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5024,19 +5024,19 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>5.965306433123321</v>
+        <v>5.865731945907406</v>
       </c>
       <c r="J90" t="n">
-        <v>53749643.69720731</v>
+        <v>105605019.3122833</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.7379963201913656</v>
+        <v>-6.695935853896648</v>
       </c>
       <c r="L90" t="n">
-        <v>5.975640052057515</v>
+        <v>6.146201163461408</v>
       </c>
       <c r="M90" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="91">
@@ -5052,11 +5052,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>923836969.9</v>
+        <v>923812201.9</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>8901839290.092813</v>
+        <v>8620721841.209597</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5075,19 +5075,19 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>9.635725328308071</v>
+        <v>9.331682157346915</v>
       </c>
       <c r="J91" t="n">
-        <v>5023166.871918892</v>
+        <v>7357546.94693044</v>
       </c>
       <c r="K91" t="n">
-        <v>0.1144331361562571</v>
+        <v>0.2364827018646868</v>
       </c>
       <c r="L91" t="n">
-        <v>9.540685872998921</v>
+        <v>9.396434383128698</v>
       </c>
       <c r="M91" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="92">
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>60242525341.88815</v>
+        <v>60649816501.55631</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>60263652571.4768</v>
+        <v>60710455106.51096</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5126,19 +5126,19 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1.000350702920715</v>
+        <v>1.000999815142938</v>
       </c>
       <c r="J92" t="n">
-        <v>3212131486.380395</v>
+        <v>9129723236.703239</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.0270781050692053</v>
+        <v>0.0486903374337158</v>
       </c>
       <c r="L92" t="n">
-        <v>1.001582251980254</v>
+        <v>0.999899637711692</v>
       </c>
       <c r="M92" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="93">
@@ -5154,11 +5154,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>899129894.3078742</v>
+        <v>872045271.8289261</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>897098518.101324</v>
+        <v>870092925.1567833</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5177,19 +5177,19 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9977407311008007</v>
+        <v>0.9977611865631149</v>
       </c>
       <c r="J93" t="n">
-        <v>20088895.72353299</v>
+        <v>10624202.75699594</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.0023119135026575</v>
+        <v>-0.0108396743382976</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="94">
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1964184580.03706</v>
+        <v>1854343290.818481</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -5228,19 +5228,19 @@
         <v>86712634466</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0228433289459476</v>
+        <v>0.021565882453918</v>
       </c>
       <c r="J94" t="n">
-        <v>19322183.19306793</v>
+        <v>33884662.27739409</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.3931565804151255</v>
+        <v>-8.099949292330598</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0229436351790824</v>
+        <v>0.0228479790826884</v>
       </c>
       <c r="M94" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="95">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -5268,7 +5268,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>950892872.421708</v>
+        <v>936777558.5390563</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5279,19 +5279,19 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>600.7341966414023</v>
+        <v>591.8167339160372</v>
       </c>
       <c r="J95" t="n">
-        <v>11243355.03006782</v>
+        <v>9414724.484843761</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.931444570149405</v>
+        <v>-4.08187890908625</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="96">
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>6155101635.752826</v>
+        <v>6073976288.754498</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5330,19 +5330,19 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1823.562218015176</v>
+        <v>1799.527339882505</v>
       </c>
       <c r="J96" t="n">
-        <v>460014715.1470926</v>
+        <v>762771151.449468</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.9902239768077677</v>
+        <v>-5.631757992512459</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="97">
@@ -5358,11 +5358,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1214526120.034464</v>
+        <v>1223649706.21482</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>954345596.6503832</v>
+        <v>885343051.8002102</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5381,19 +5381,19 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7857760989309165</v>
+        <v>0.7235265511883205</v>
       </c>
       <c r="J97" t="n">
-        <v>63445489.85881181</v>
+        <v>124472712.5707124</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.08557528466782161</v>
+        <v>-10.14228398185226</v>
       </c>
       <c r="L97" t="n">
-        <v>0.784765228670752</v>
+        <v>0.7755519829311917</v>
       </c>
       <c r="M97" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="98">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>10598806295.64475</v>
+        <v>10636821595.39588</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5432,19 +5432,19 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>82112.01838765903</v>
+        <v>82406.53391187041</v>
       </c>
       <c r="J98" t="n">
-        <v>107738586.7663614</v>
+        <v>213724793.31217</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.3333061838342018</v>
+        <v>-3.000200003370273</v>
       </c>
       <c r="L98" t="n">
-        <v>82981.70075077804</v>
+        <v>85698.13617221026</v>
       </c>
       <c r="M98" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="99">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1043799394.384574</v>
+        <v>1019376585.622817</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5483,19 +5483,19 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0665151584181181</v>
+        <v>0.064958837344794</v>
       </c>
       <c r="J99" t="n">
-        <v>7730999.089868316</v>
+        <v>25689817.8851878</v>
       </c>
       <c r="K99" t="n">
-        <v>-3.484430922684926</v>
+        <v>-5.902535511561664</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0679297363148188</v>
+        <v>0.06741411236230881</v>
       </c>
       <c r="M99" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="100">
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>125128539404.0488</v>
+        <v>118253432675.7567</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5534,19 +5534,19 @@
         <v>100000000000</v>
       </c>
       <c r="I100" t="n">
-        <v>2.149764456758208</v>
+        <v>2.031647038051861</v>
       </c>
       <c r="J100" t="n">
-        <v>1238750853.435843</v>
+        <v>2728488359.633981</v>
       </c>
       <c r="K100" t="n">
-        <v>1.515909681852733</v>
+        <v>-5.061947714002973</v>
       </c>
       <c r="L100" t="n">
-        <v>2.151586303261154</v>
+        <v>2.11526726228325</v>
       </c>
       <c r="M100" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="101">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -5574,7 +5574,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>575776967.8990471</v>
+        <v>620064789.6743512</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5585,19 +5585,19 @@
         <v>21000000</v>
       </c>
       <c r="I101" t="n">
-        <v>36.24242810434178</v>
+        <v>39.03013634221417</v>
       </c>
       <c r="J101" t="n">
-        <v>7555036.186334878</v>
+        <v>16863800.70170405</v>
       </c>
       <c r="K101" t="n">
-        <v>0.6166750864665108</v>
+        <v>-4.546487086469445</v>
       </c>
       <c r="L101" t="n">
-        <v>36.06533194323361</v>
+        <v>40.30797525942357</v>
       </c>
       <c r="M101" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/enriched_data/enriched_data.xlsx
+++ b/src/static/enriched_data/enriched_data.xlsx
@@ -513,11 +513,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15096506.17915445</v>
+        <v>15096908.25633893</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2285253833.838017</v>
+        <v>2251930389.419629</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.3763387845023</v>
+        <v>149.1650045945058</v>
       </c>
       <c r="J2" t="n">
-        <v>206391229.1568677</v>
+        <v>104199265.6277883</v>
       </c>
       <c r="K2" t="n">
-        <v>-9.035251051536573</v>
+        <v>-3.701634394600537</v>
       </c>
       <c r="L2" t="n">
-        <v>160.3489168614322</v>
+        <v>151.1010997107187</v>
       </c>
       <c r="M2" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="3">
@@ -564,11 +564,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8537381523.817804</v>
+        <v>8535611719.937347</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1509418092.410245</v>
+        <v>1536756629.709208</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -587,19 +587,19 @@
         <v>10000000000</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1768010587554547</v>
+        <v>0.1800405969872876</v>
       </c>
       <c r="J3" t="n">
-        <v>80245498.92810749</v>
+        <v>50083736.09387279</v>
       </c>
       <c r="K3" t="n">
-        <v>-6.495347854005003</v>
+        <v>-0.2703286499111477</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1874739495398206</v>
+        <v>0.1763102660009111</v>
       </c>
       <c r="M3" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="4">
@@ -615,11 +615,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>604422794.1445551</v>
+        <v>604472162.4773237</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3083077512.117356</v>
+        <v>3027303615.549763</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.100862412842757</v>
+        <v>5.008177056728117</v>
       </c>
       <c r="J4" t="n">
-        <v>90399090.1278228</v>
+        <v>80939686.93577206</v>
       </c>
       <c r="K4" t="n">
-        <v>-5.682685709392784</v>
+        <v>-4.320487874997162</v>
       </c>
       <c r="L4" t="n">
-        <v>5.317628814344857</v>
+        <v>5.081138319926136</v>
       </c>
       <c r="M4" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="5">
@@ -666,7 +666,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1419970173.104204</v>
+        <v>1428742696.010017</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -689,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3074917326911489</v>
+        <v>0.3093914051768635</v>
       </c>
       <c r="J5" t="n">
-        <v>126219617.4180657</v>
+        <v>83816986.13021366</v>
       </c>
       <c r="K5" t="n">
-        <v>-7.959572750167268</v>
+        <v>-1.632127652267372</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3241460492829289</v>
+        <v>0.3055241213400205</v>
       </c>
       <c r="M5" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="6">
@@ -717,11 +717,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>414902635.884638</v>
+        <v>414932590.3611275</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7491642400.823088</v>
+        <v>7507349560.392557</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -740,19 +740,19 @@
         <v>715748719</v>
       </c>
       <c r="I6" t="n">
-        <v>18.056386614295</v>
+        <v>18.09293782842822</v>
       </c>
       <c r="J6" t="n">
-        <v>277512231.3143471</v>
+        <v>158483046.5322474</v>
       </c>
       <c r="K6" t="n">
-        <v>-8.75340146302049</v>
+        <v>-2.848614644554627</v>
       </c>
       <c r="L6" t="n">
-        <v>19.24998547876686</v>
+        <v>18.20884657264996</v>
       </c>
       <c r="M6" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="7">
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>706996649.343044</v>
+        <v>648724459.8652017</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6.577936819343543</v>
+        <v>6.035769072061794</v>
       </c>
       <c r="J7" t="n">
-        <v>141240952.2475507</v>
+        <v>123360041.1774452</v>
       </c>
       <c r="K7" t="n">
-        <v>-8.384948147206748</v>
+        <v>-9.872110249925662</v>
       </c>
       <c r="L7" t="n">
-        <v>7.051027343251814</v>
+        <v>6.20480167076702</v>
       </c>
       <c r="M7" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="8">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>85410795869.50671</v>
+        <v>85245710974.68388</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -842,19 +842,19 @@
         <v>144006830</v>
       </c>
       <c r="I8" t="n">
-        <v>593.1023956954452</v>
+        <v>591.9560271876264</v>
       </c>
       <c r="J8" t="n">
-        <v>796407551.4510291</v>
+        <v>657429420.0399308</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.023076744871894</v>
+        <v>-1.926586888664134</v>
       </c>
       <c r="L8" t="n">
-        <v>602.8583017048007</v>
+        <v>595.310906111476</v>
       </c>
       <c r="M8" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="9">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>833596261.6203269</v>
+        <v>830544470.6809145</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -893,19 +893,19 @@
         <v>580000000</v>
       </c>
       <c r="I9" t="n">
-        <v>2.182947740058857</v>
+        <v>2.174955981408965</v>
       </c>
       <c r="J9" t="n">
-        <v>24615531.47033431</v>
+        <v>11380600.41532334</v>
       </c>
       <c r="K9" t="n">
-        <v>-2.247916864418234</v>
+        <v>-0.3909122075854143</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="10">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19845709</v>
+        <v>19846231</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1639528365133.917</v>
+        <v>1645455068329.599</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -944,3181 +944,3181 @@
         <v>21000000</v>
       </c>
       <c r="I10" t="n">
-        <v>82613.7461319178</v>
+        <v>82910.2043773248</v>
       </c>
       <c r="J10" t="n">
-        <v>19458216229.54564</v>
+        <v>14252713672.21245</v>
       </c>
       <c r="K10" t="n">
-        <v>-3.162834766668406</v>
+        <v>-0.9832242352240396</v>
       </c>
       <c r="L10" t="n">
-        <v>85489.61479724778</v>
+        <v>82471.92050737684</v>
       </c>
       <c r="M10" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>bitcoin-bep2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bitcoin cash</t>
+          <t>bitcoin bep2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19850634.375</v>
+        <v>65207.71839618</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://blockchair.com/bitcoin-cash/blocks</t>
+          <t>https://explorer.binance.org/asset/BTCB-1DE</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5858474421.047663</v>
+        <v>5406915597.290776</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>BTCB</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>295.1278186064349</v>
+        <v>82918.33743423116</v>
       </c>
       <c r="J11" t="n">
-        <v>130848701.8898557</v>
+        <v>1329194.124141878</v>
       </c>
       <c r="K11" t="n">
-        <v>-4.507866569704936</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>306.7222238186457</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bitcoin sv</t>
+          <t>bitcoin cash</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19846218.75</v>
+        <v>19851131.25</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://blockchair.com/bitcoin-cash/blocks</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>607687878.8539023</v>
+        <v>5981333587.628716</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="I12" t="n">
-        <v>30.61983174270425</v>
+        <v>301.3094574964696</v>
       </c>
       <c r="J12" t="n">
-        <v>21336112.56265872</v>
+        <v>120834301.9356934</v>
       </c>
       <c r="K12" t="n">
-        <v>-5.45557091524111</v>
+        <v>-0.0132785752305981</v>
       </c>
       <c r="L12" t="n">
-        <v>31.75300840772145</v>
+        <v>300.0563088431247</v>
       </c>
       <c r="M12" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bitget-token-new</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bitget token</t>
+          <t>bitcoin sv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1200000000</v>
+        <v>19846700</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5394449264.133169</v>
+        <v>605766754.4992813</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.495374386777642</v>
+        <v>30.52229108613932</v>
       </c>
       <c r="J13" t="n">
-        <v>102975348.7022756</v>
+        <v>16101837.03713503</v>
       </c>
       <c r="K13" t="n">
-        <v>-3.410144528908545</v>
+        <v>-1.967020938898063</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>30.48965041902097</v>
       </c>
       <c r="M13" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>bitget-token-new</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>bitget token</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8546962</v>
+        <v>1200000000</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1820962687.457499</v>
+        <v>5384848075.618716</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>213.0537947234934</v>
+        <v>4.48737339634893</v>
       </c>
       <c r="J14" t="n">
-        <v>99570571.73600414</v>
+        <v>130350448.3864484</v>
       </c>
       <c r="K14" t="n">
-        <v>-7.841474042792181</v>
+        <v>-1.587327168068107</v>
       </c>
       <c r="L14" t="n">
-        <v>225.0489583384514</v>
+        <v>4.40791209149584</v>
       </c>
       <c r="M14" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bittorrent [new]</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>986061142857000</v>
+        <v>8554006</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://bittensor.com/scan</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>623368561.8335109</v>
+        <v>1846463934.590856</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="I15" t="n">
-        <v>6.321804346e-07</v>
+        <v>215.8595556971618</v>
       </c>
       <c r="J15" t="n">
-        <v>3084385.420199719</v>
+        <v>75299193.54599676</v>
       </c>
       <c r="K15" t="n">
-        <v>-4.688371340736024</v>
+        <v>-0.8799862493909067</v>
       </c>
       <c r="L15" t="n">
-        <v>6.598273811e-07</v>
+        <v>209.1094002906921</v>
       </c>
       <c r="M15" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>bittorrent [new]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>77894175221082.55</v>
+        <v>986061142857000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>866119281.4611833</v>
+        <v>618835633.1392488</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>BONK</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.11191790529e-05</v>
+        <v>6.275834289e-07</v>
       </c>
       <c r="J16" t="n">
-        <v>169405501.2888673</v>
+        <v>2672549.132679281</v>
       </c>
       <c r="K16" t="n">
-        <v>-11.47491546182478</v>
+        <v>-1.831034134731635</v>
       </c>
       <c r="L16" t="n">
-        <v>1.21616345354e-05</v>
+        <v>6.310559119e-07</v>
       </c>
       <c r="M16" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35268011575.20344</v>
+        <v>77894175221082.55</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://cardanoexplorer.com/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>22667528163.29645</v>
+        <v>848821198.1726248</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>45000000000</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6427220348094062</v>
+        <v>1.08971074636e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>517803627.6003991</v>
+        <v>70618971.68768366</v>
       </c>
       <c r="K17" t="n">
-        <v>-5.206027623518024</v>
+        <v>-4.392838619663869</v>
       </c>
       <c r="L17" t="n">
-        <v>0.675985217124384</v>
+        <v>1.09112235835e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>584318047.263137</v>
+        <v>35268011575.20344</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>https://cardanoexplorer.com/</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1705606928.616612</v>
+        <v>22833704989.2944</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>45000000000</v>
       </c>
       <c r="I18" t="n">
-        <v>2.918970133825976</v>
+        <v>0.6474338634205431</v>
       </c>
       <c r="J18" t="n">
-        <v>60623724.66741421</v>
+        <v>386661232.3456318</v>
       </c>
       <c r="K18" t="n">
-        <v>-7.344581452794278</v>
+        <v>-0.9594468516662388</v>
       </c>
       <c r="L18" t="n">
-        <v>3.089847364993364</v>
+        <v>0.6375039400318576</v>
       </c>
       <c r="M18" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>657099970.4527867</v>
+        <v>585525337.889847</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8497966177.631245</v>
+        <v>1662776684.122552</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>12.93253166907855</v>
+        <v>2.839803124686236</v>
       </c>
       <c r="J19" t="n">
-        <v>396218714.0103962</v>
+        <v>73854421.55163196</v>
       </c>
       <c r="K19" t="n">
-        <v>-7.846179873726003</v>
+        <v>-3.382631225863868</v>
       </c>
       <c r="L19" t="n">
-        <v>13.70445832165414</v>
+        <v>2.798522828910369</v>
       </c>
       <c r="M19" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>390934204</v>
+        <v>657099970.4527867</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/</t>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1639056684.249118</v>
+        <v>8388795396.303823</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.192666355305965</v>
+        <v>12.76639137652581</v>
       </c>
       <c r="J20" t="n">
-        <v>72092326.39662719</v>
+        <v>301182209.8381416</v>
       </c>
       <c r="K20" t="n">
-        <v>-4.318025022013916</v>
+        <v>-3.278048130974145</v>
       </c>
       <c r="L20" t="n">
-        <v>4.382955938903192</v>
+        <v>12.74915569325054</v>
       </c>
       <c r="M20" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cronos</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26571560696</v>
+        <v>390934204</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://www.mintscan.io/</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2550846518.800735</v>
+        <v>1830111374.674361</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>30263013692</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0959991228209915</v>
+        <v>4.681379515910461</v>
       </c>
       <c r="J21" t="n">
-        <v>55193668.38415601</v>
+        <v>88316241.2324246</v>
       </c>
       <c r="K21" t="n">
-        <v>-7.469327507535235</v>
+        <v>6.179953015103079</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1040418566991901</v>
+        <v>4.486329507123636</v>
       </c>
       <c r="M21" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>curve dao token</t>
+          <t>cronos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1308683113</v>
+        <v>26571560696</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>646436402.9773983</v>
+        <v>2510011282.610254</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3030303030.299</v>
+        <v>30263013692</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4939594593648572</v>
+        <v>0.0944623204984758</v>
       </c>
       <c r="J22" t="n">
-        <v>113413935.9443063</v>
+        <v>28741091.00565905</v>
       </c>
       <c r="K22" t="n">
-        <v>-8.779768620235577</v>
+        <v>-4.953951993470424</v>
       </c>
       <c r="L22" t="n">
-        <v>0.523245745737979</v>
+        <v>0.09581994412112541</v>
       </c>
       <c r="M22" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>curve dao token</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>83733353.16057506</v>
+        <v>1310525529</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1216907074.778836</v>
+        <v>675509751.865934</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>DEXE</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3030303030.299</v>
       </c>
       <c r="I23" t="n">
-        <v>14.53312245175682</v>
+        <v>0.515449517707132</v>
       </c>
       <c r="J23" t="n">
-        <v>36808371.90649818</v>
+        <v>132012358.0597956</v>
       </c>
       <c r="K23" t="n">
-        <v>5.901703388604293</v>
+        <v>-0.60852698450728</v>
       </c>
       <c r="L23" t="n">
-        <v>14.42026119102921</v>
+        <v>0.5146555420974264</v>
       </c>
       <c r="M23" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dogecoin</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dogecoin</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>148690796383.7052</v>
+        <v>83733353.16057506</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://dogechain.info/chain/Dogecoin</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>24483399831.01411</v>
+        <v>1250463475.41805</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>DOGE</t>
+          <t>DEXE</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1646598204224643</v>
+        <v>14.93387554920966</v>
       </c>
       <c r="J24" t="n">
-        <v>1210105392.528667</v>
+        <v>14858363.77245131</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.488255055432653</v>
+        <v>-0.1185698548443233</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1720568712245129</v>
+        <v>14.99442572133488</v>
       </c>
       <c r="M24" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>dogecoin</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>dogecoin</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1556419102.7764</v>
+        <v>148705696383.7053</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>http://dogechain.info/chain/Dogecoin</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1243476602.128556</v>
+        <v>24022255961.98788</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>DOGE</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2100000000</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7989342972663305</v>
+        <v>0.1615422713868557</v>
       </c>
       <c r="J25" t="n">
-        <v>618718409.6060722</v>
+        <v>777704463.3575494</v>
       </c>
       <c r="K25" t="n">
-        <v>16.0624682909018</v>
+        <v>-2.851300428843161</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7970777844200969</v>
+        <v>0.160406295303844</v>
       </c>
       <c r="M25" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5285937500</v>
+        <v>1556643195.5878</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1776662918.48672</v>
+        <v>1324481806.397239</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2100000000</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3361112231248893</v>
+        <v>0.8508576725555305</v>
       </c>
       <c r="J26" t="n">
-        <v>184509737.1108449</v>
+        <v>415040297.8732621</v>
       </c>
       <c r="K26" t="n">
-        <v>-9.346741108744897</v>
+        <v>1.283810719307889</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3624869361772366</v>
+        <v>0.8241222227342992</v>
       </c>
       <c r="M26" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ethena usde</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5260950968.360694</v>
+        <v>5285937500</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>etherscan.io</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5258656650.563245</v>
+        <v>1655459686.522244</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9995638967534108</v>
+        <v>0.3131818502436406</v>
       </c>
       <c r="J27" t="n">
-        <v>60069868.12997163</v>
+        <v>158421608.3451165</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0444959274790329</v>
+        <v>-7.23160390068061</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.3124894893270447</v>
       </c>
       <c r="M27" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ethereum</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ethereum</t>
+          <t>ethena usde</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>120661946.5561552</v>
+        <v>5252116023.595393</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://etherscan.io/</t>
+          <t>etherscan.io</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>217027307344.3245</v>
+        <v>5249076389.421836</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1798.639202653022</v>
+        <v>0.9994212553264432</v>
       </c>
       <c r="J28" t="n">
-        <v>11636134272.01865</v>
+        <v>72089375.17657015</v>
       </c>
       <c r="K28" t="n">
-        <v>-5.812823349992104</v>
+        <v>-0.0344723059474687</v>
       </c>
       <c r="L28" t="n">
-        <v>1873.245639369356</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ethereum classic</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>151367967.6932335</v>
+        <v>120666956.0999142</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://gastracker.io/</t>
+          <t>https://etherscan.io/</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2431759469.258697</v>
+        <v>217347221316.2245</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>210700000</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>16.06521846277918</v>
+        <v>1801.215745727916</v>
       </c>
       <c r="J29" t="n">
-        <v>65186288.1192406</v>
+        <v>8379047521.158787</v>
       </c>
       <c r="K29" t="n">
-        <v>-4.875504741427033</v>
+        <v>-1.430061156939054</v>
       </c>
       <c r="L29" t="n">
-        <v>16.62574949281566</v>
+        <v>1795.76173761577</v>
       </c>
       <c r="M29" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ethereum name service</t>
+          <t>ethereum classic</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>35599404.04</v>
+        <v>151382010.9572335</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>http://gastracker.io/</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>537733564.046931</v>
+        <v>2439870589.543532</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>100000000</v>
+        <v>210700000</v>
       </c>
       <c r="I30" t="n">
-        <v>15.10512826121263</v>
+        <v>16.1173086162319</v>
       </c>
       <c r="J30" t="n">
-        <v>54278468.8067642</v>
+        <v>59310036.86176227</v>
       </c>
       <c r="K30" t="n">
-        <v>-7.782119749011029</v>
+        <v>-1.865082444878315</v>
       </c>
       <c r="L30" t="n">
-        <v>16.05745486500942</v>
+        <v>16.13367814169355</v>
       </c>
       <c r="M30" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>sonic (prev. ftm)</t>
+          <t>ethereum name service</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2880000000</v>
+        <v>35599404.04</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sonicscan.org</t>
+          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1354992622.087925</v>
+        <v>536484366.6070729</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3175000000</v>
+        <v>100000000</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4704835493360852</v>
+        <v>15.07003785805716</v>
       </c>
       <c r="J31" t="n">
-        <v>156344674.3284973</v>
+        <v>35032077.57525265</v>
       </c>
       <c r="K31" t="n">
-        <v>-7.176278640013117</v>
+        <v>-2.266696590915513</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4920631421067934</v>
+        <v>15.06773720321074</v>
       </c>
       <c r="M31" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>artificial superintelligence alliance</t>
+          <t>sonic (prev. ftm)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2520000000</v>
+        <v>2880000000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1087206379.665458</v>
+        <v>1386303176.027496</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>S</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2630547141</v>
+        <v>3175000000</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4314311030418484</v>
+        <v>0.4813552694539918</v>
       </c>
       <c r="J32" t="n">
-        <v>83558730.93928134</v>
+        <v>103745700.6901038</v>
       </c>
       <c r="K32" t="n">
-        <v>-7.918796811634947</v>
+        <v>0.3246189886181707</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4564764069373379</v>
+        <v>0.4637408903545136</v>
       </c>
       <c r="M32" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>artificial superintelligence alliance</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>647135072</v>
+        <v>2520000000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1748026602.933024</v>
+        <v>1089463831.667597</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2630547141</v>
       </c>
       <c r="I33" t="n">
-        <v>2.701177356267632</v>
+        <v>0.4323269173284117</v>
       </c>
       <c r="J33" t="n">
-        <v>123753603.4866048</v>
+        <v>66269380.35850753</v>
       </c>
       <c r="K33" t="n">
-        <v>-4.946848743030269</v>
+        <v>-2.846092790340318</v>
       </c>
       <c r="L33" t="n">
-        <v>2.779894825142768</v>
+        <v>0.4293153537259046</v>
       </c>
       <c r="M33" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>first digital usd</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2601315490.163333</v>
+        <v>647135072</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://protocol.ai</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2550174963.298119</v>
+        <v>1758385592.36331</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9803405134599787</v>
+        <v>2.717184817273062</v>
       </c>
       <c r="J34" t="n">
-        <v>4154241194.444836</v>
+        <v>77907897.46274142</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.648983491992384</v>
+        <v>-1.973004652134732</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9719757358097704</v>
+        <v>2.695478612262973</v>
       </c>
       <c r="M34" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>first digital usd</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>60983663777.01</v>
+        <v>2364076402.993331</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://flare-explorer.flare.network/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>790584621.3156202</v>
+        <v>2351176923.70078</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0129638754438637</v>
+        <v>0.9945435438227724</v>
       </c>
       <c r="J35" t="n">
-        <v>9619412.273185279</v>
+        <v>1893500302.29047</v>
       </c>
       <c r="K35" t="n">
-        <v>-4.934146522422909</v>
+        <v>0.8580311781834178</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0132479430176268</v>
+        <v>0.9929297843495152</v>
       </c>
       <c r="M35" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1574016688.191111</v>
+        <v>60983663777.01</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>580342144.3433431</v>
+        <v>793778552.6324067</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3687013922389114</v>
+        <v>0.0130162489996485</v>
       </c>
       <c r="J36" t="n">
-        <v>14874825.86397926</v>
+        <v>12437019.23299014</v>
       </c>
       <c r="K36" t="n">
-        <v>-5.823438499218578</v>
+        <v>-2.878247911185047</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3842730029677338</v>
+        <v>0.0131699390999529</v>
       </c>
       <c r="M36" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>43804947221.80908</v>
+        <v>1574016688.191111</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>634539418.3257244</v>
+        <v>581279954.32868</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>50000000000</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0144855651831446</v>
+        <v>0.3692971991273471</v>
       </c>
       <c r="J37" t="n">
-        <v>50670420.24572248</v>
+        <v>11313506.36346879</v>
       </c>
       <c r="K37" t="n">
-        <v>-8.943127268042366</v>
+        <v>-1.764388635932471</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0154744640979484</v>
+        <v>0.3687950927488156</v>
       </c>
       <c r="M37" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>85828689.43341725</v>
+        <v>43820741411.30103</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1910046998.573512</v>
+        <v>652003869.6162957</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>50000000000</v>
       </c>
       <c r="I38" t="n">
-        <v>22.25417877381498</v>
+        <v>0.0148788872259507</v>
       </c>
       <c r="J38" t="n">
-        <v>13883428.04205544</v>
+        <v>38541874.30437732</v>
       </c>
       <c r="K38" t="n">
-        <v>-2.845874060863446</v>
+        <v>-2.20056844700479</v>
       </c>
       <c r="L38" t="n">
-        <v>22.69108905549081</v>
+        <v>0.0147510890254554</v>
       </c>
       <c r="M38" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>hedera</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>42219399509.40282</v>
+        <v>85828710.29596004</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://app.dragonglass.me/hedera/home</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6808477142.708096</v>
+        <v>1891153862.658108</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>50000000000</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1612641871230726</v>
+        <v>22.03404730348284</v>
       </c>
       <c r="J39" t="n">
-        <v>209158732.5758689</v>
+        <v>10814573.08471378</v>
       </c>
       <c r="K39" t="n">
-        <v>-5.425098967799477</v>
+        <v>-1.811816907996373</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1681223451443682</v>
+        <v>21.88499817138331</v>
       </c>
       <c r="M39" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>hedera</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>333928180</v>
+        <v>42219399509.40282</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>https://app.dragonglass.me/hedera/home</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3964069991.407324</v>
+        <v>6769945155.097817</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="I40" t="n">
-        <v>11.8710256541012</v>
+        <v>0.1603515264017448</v>
       </c>
       <c r="J40" t="n">
-        <v>37118853.25596793</v>
+        <v>175839960.801695</v>
       </c>
       <c r="K40" t="n">
-        <v>-10.78061635634239</v>
+        <v>-2.768013581938662</v>
       </c>
       <c r="L40" t="n">
-        <v>13.44848163445684</v>
+        <v>0.1608280285671282</v>
       </c>
       <c r="M40" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>immutable x</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1768317543.39</v>
+        <v>333928180</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>849353385.9087651</v>
+        <v>3945453821.585091</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4803172309654802</v>
+        <v>11.81527663099619</v>
       </c>
       <c r="J41" t="n">
-        <v>20185722.7658891</v>
+        <v>35642009.83403029</v>
       </c>
       <c r="K41" t="n">
-        <v>-9.195470740946849</v>
+        <v>-5.276051737277441</v>
       </c>
       <c r="L41" t="n">
-        <v>0.5115406053816249</v>
+        <v>11.67227816267106</v>
       </c>
       <c r="M41" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>injective</t>
+          <t>immutable x</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>98970935.41</v>
+        <v>1768317543.39</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>827402248.4369071</v>
+        <v>818662663.1281989</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>100000000</v>
+        <v>2000000000</v>
       </c>
       <c r="I42" t="n">
-        <v>8.360052827724479</v>
+        <v>0.4629613420894756</v>
       </c>
       <c r="J42" t="n">
-        <v>57879859.31465697</v>
+        <v>28983972.45388184</v>
       </c>
       <c r="K42" t="n">
-        <v>-6.815260541630016</v>
+        <v>-4.83360348335341</v>
       </c>
       <c r="L42" t="n">
-        <v>8.769231918013302</v>
+        <v>0.4693974301488583</v>
       </c>
       <c r="M42" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>internet computer</t>
+          <t>injective</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>482284285.8834832</v>
+        <v>98970935.41</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2448383745.129295</v>
+        <v>826459057.647656</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>100000000</v>
       </c>
       <c r="I43" t="n">
-        <v>5.076640099612967</v>
+        <v>8.350522850207907</v>
       </c>
       <c r="J43" t="n">
-        <v>43870906.84172429</v>
+        <v>40676004.1288185</v>
       </c>
       <c r="K43" t="n">
-        <v>-6.717813180756869</v>
+        <v>-3.069835948097645</v>
       </c>
       <c r="L43" t="n">
-        <v>5.269074340812685</v>
+        <v>8.361410400480246</v>
       </c>
       <c r="M43" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>internet computer</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3707948285</v>
+        <v>482976259.2016464</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>601775482.3818355</v>
+        <v>2477431953.28222</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1622933860259692</v>
+        <v>5.129510832224722</v>
       </c>
       <c r="J44" t="n">
-        <v>24872663.83196933</v>
+        <v>41030111.036493</v>
       </c>
       <c r="K44" t="n">
-        <v>-7.158572374744081</v>
+        <v>-1.461736014031701</v>
       </c>
       <c r="L44" t="n">
-        <v>0.1719086823078441</v>
+        <v>5.096855514132704</v>
       </c>
       <c r="M44" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>311886262.1</v>
+        <v>3707948285</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>654917431.1518688</v>
+        <v>607985183.6533706</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.099859823071921</v>
+        <v>0.1639680861011174</v>
       </c>
       <c r="J45" t="n">
-        <v>31753863.87631932</v>
+        <v>16218542.85560784</v>
       </c>
       <c r="K45" t="n">
-        <v>-8.657252674208319</v>
+        <v>-1.273929450600674</v>
       </c>
       <c r="L45" t="n">
-        <v>2.248439391185282</v>
+        <v>0.1607559931311421</v>
       </c>
       <c r="M45" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2690911111.1</v>
+        <v>312629902</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1025229816.153528</v>
+        <v>619303950.9717766</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>JUP</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3000000000</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3809972807813897</v>
+        <v>1.98094918947253</v>
       </c>
       <c r="J46" t="n">
-        <v>83981899.12279856</v>
+        <v>21943095.2134035</v>
       </c>
       <c r="K46" t="n">
-        <v>-10.56412877295929</v>
+        <v>-7.7774810791092</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4053061703516297</v>
+        <v>2.020898184940003</v>
       </c>
       <c r="M46" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5966455361.82</v>
+        <v>2690911111.1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>614087519.9211075</v>
+        <v>1036395025.000629</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>3000000000</v>
       </c>
       <c r="I47" t="n">
-        <v>0.102923341026017</v>
+        <v>0.3851465106838732</v>
       </c>
       <c r="J47" t="n">
-        <v>13233301.68416004</v>
+        <v>38088685.29962685</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.857366922713082</v>
+        <v>-0.2820149391063747</v>
       </c>
       <c r="L47" t="n">
-        <v>0.1058577877482666</v>
+        <v>0.3763142390885347</v>
       </c>
       <c r="M47" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>25960683651.37431</v>
+        <v>5966455361.82</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1634301649.713906</v>
+        <v>653018119.2961475</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>28704026601</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0629529511495507</v>
+        <v>0.1094482535602096</v>
       </c>
       <c r="J48" t="n">
-        <v>77007554.69869666</v>
+        <v>16597249.8267699</v>
       </c>
       <c r="K48" t="n">
-        <v>-8.459292236299413</v>
+        <v>2.676405481454314</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0662283556835476</v>
+        <v>0.1055254130447434</v>
       </c>
       <c r="M48" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>kucoin token</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>125043917.8513356</v>
+        <v>25966463752.85378</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1332707105.008601</v>
+        <v>1672752758.847386</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>200000000</v>
+        <v>28704026601</v>
       </c>
       <c r="I49" t="n">
-        <v>10.65791225921962</v>
+        <v>0.06441973673306001</v>
       </c>
       <c r="J49" t="n">
-        <v>1441370.817486463</v>
+        <v>59998500.42421051</v>
       </c>
       <c r="K49" t="n">
-        <v>-2.282839311617566</v>
+        <v>-0.143811591811306</v>
       </c>
       <c r="L49" t="n">
-        <v>10.83873797875412</v>
+        <v>0.0632990459714779</v>
       </c>
       <c r="M49" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>lido dao</t>
+          <t>kucoin token</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>897877243.8587133</v>
+        <v>125043917.8513356</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>736136852.886333</v>
+        <v>1285356232.028005</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>200000000</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8198635814877261</v>
+        <v>10.27923831974108</v>
       </c>
       <c r="J50" t="n">
-        <v>48053255.84772823</v>
+        <v>1217508.487078589</v>
       </c>
       <c r="K50" t="n">
-        <v>-9.0610562952472</v>
+        <v>-4.213039063629003</v>
       </c>
       <c r="L50" t="n">
-        <v>0.8705865640083251</v>
+        <v>10.43305061215267</v>
       </c>
       <c r="M50" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>lido dao</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>75558468.3040892</v>
+        <v>897877243.8587133</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://explorer.litecoin.net/chain/Litecoin</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6198760373.188729</v>
+        <v>745884760.9490639</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>84000000</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>82.03925400183444</v>
+        <v>0.8307201970545026</v>
       </c>
       <c r="J51" t="n">
-        <v>380928653.6802415</v>
+        <v>34490788.61104105</v>
       </c>
       <c r="K51" t="n">
-        <v>-3.112010644396956</v>
+        <v>-0.8197655482719808</v>
       </c>
       <c r="L51" t="n">
-        <v>84.15151389517649</v>
+        <v>0.8159793681766345</v>
       </c>
       <c r="M51" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>848074.4183746701</v>
+        <v>75558468.3040892</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>http://explorer.litecoin.net/chain/Litecoin</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1087845997.633965</v>
+        <v>6276792885.955726</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1000000</v>
+        <v>84000000</v>
       </c>
       <c r="I52" t="n">
-        <v>1282.724692626404</v>
+        <v>83.07199744566589</v>
       </c>
       <c r="J52" t="n">
-        <v>43115763.75098969</v>
+        <v>265371587.7937275</v>
       </c>
       <c r="K52" t="n">
-        <v>-7.398641994174008</v>
+        <v>-0.4287740138796887</v>
       </c>
       <c r="L52" t="n">
-        <v>1365.379995318378</v>
+        <v>82.71517919691371</v>
       </c>
       <c r="M52" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3364694382.836841</v>
+        <v>848074.4183746701</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2612596235.787368</v>
+        <v>1092145367.243447</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>6219316795</v>
+        <v>1000000</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7764735629821558</v>
+        <v>1287.794259065776</v>
       </c>
       <c r="J53" t="n">
-        <v>163771963.7224364</v>
+        <v>27377109.15972532</v>
       </c>
       <c r="K53" t="n">
-        <v>-3.1730253716361</v>
+        <v>-1.661933781147138</v>
       </c>
       <c r="L53" t="n">
-        <v>0.7933856661937005</v>
+        <v>1281.430895086542</v>
       </c>
       <c r="M53" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mantra</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>974778351.8199997</v>
+        <v>3364694382.836841</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6115177710.771641</v>
+        <v>2503052193.536201</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>888888888</v>
+        <v>6219316795</v>
       </c>
       <c r="I54" t="n">
-        <v>6.27340328122188</v>
+        <v>0.7439166559388459</v>
       </c>
       <c r="J54" t="n">
-        <v>66493161.44447893</v>
+        <v>202166274.9902645</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0254139703045069</v>
+        <v>-4.647094109076543</v>
       </c>
       <c r="L54" t="n">
-        <v>6.27044371781142</v>
+        <v>0.7534957552303403</v>
       </c>
       <c r="M54" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>mantra</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>18446744.07370955</v>
+        <v>974778351.8199997</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://moneroblocks.info/</t>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3940688577.432065</v>
+        <v>6196028586.126849</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>888888888</v>
       </c>
       <c r="I55" t="n">
-        <v>213.6251558370329</v>
+        <v>6.356346111460417</v>
       </c>
       <c r="J55" t="n">
-        <v>57335102.35129624</v>
+        <v>58026177.51722552</v>
       </c>
       <c r="K55" t="n">
-        <v>-1.588928329821728</v>
+        <v>0.6184479485832027</v>
       </c>
       <c r="L55" t="n">
-        <v>217.656319635422</v>
+        <v>6.308726722416403</v>
       </c>
       <c r="M55" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2450000000</v>
+        <v>18446744.07370955</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>http://moneroblocks.info/</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>931613473.4540864</v>
+        <v>3931065257.520929</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>MOVE</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>10000000000</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3802503973281985</v>
+        <v>213.103474619324</v>
       </c>
       <c r="J56" t="n">
-        <v>87621597.75756431</v>
+        <v>52449805.99647362</v>
       </c>
       <c r="K56" t="n">
-        <v>-8.246693714780585</v>
+        <v>-1.626777394558356</v>
       </c>
       <c r="L56" t="n">
-        <v>0.4028765948446518</v>
+        <v>212.8114129604267</v>
       </c>
       <c r="M56" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>dai</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5365382702.664872</v>
+        <v>2450000000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5362386872.32885</v>
+        <v>954913424.4212536</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>MOVE</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9994416371576748</v>
+        <v>0.38976058139643</v>
       </c>
       <c r="J57" t="n">
-        <v>133002634.1544962</v>
+        <v>53696732.15368436</v>
       </c>
       <c r="K57" t="n">
-        <v>0.00953954366571</v>
+        <v>-0.0847266140628771</v>
       </c>
       <c r="L57" t="n">
-        <v>0.999701602633154</v>
+        <v>0.3874908428413564</v>
       </c>
       <c r="M57" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>near protocol</t>
+          <t>dai</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1199000741</v>
+        <v>5365382702.664872</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2931520640.878872</v>
+        <v>5364447321.737244</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2.444969832490597</v>
+        <v>0.9998256637076114</v>
       </c>
       <c r="J58" t="n">
-        <v>139662458.0853478</v>
+        <v>92780679.4785596</v>
       </c>
       <c r="K58" t="n">
-        <v>-7.78821603901056</v>
+        <v>0.038123547615986</v>
       </c>
       <c r="L58" t="n">
-        <v>2.607478124935529</v>
+        <v>0.9999976015001149</v>
       </c>
       <c r="M58" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>near protocol</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>646145839.5746847</v>
+        <v>1199263060</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>670432227.1842363</v>
+        <v>2981082309.786353</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1.037586541802293</v>
+        <v>2.485761805909666</v>
       </c>
       <c r="J59" t="n">
-        <v>5769068.598505266</v>
+        <v>109715147.7172333</v>
       </c>
       <c r="K59" t="n">
-        <v>-4.604250383821361</v>
+        <v>-1.755448623751174</v>
       </c>
       <c r="L59" t="n">
-        <v>1.061992902576746</v>
+        <v>2.457471527975619</v>
       </c>
       <c r="M59" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>trump official</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>199999427.480758</v>
+        <v>646145839.5746847</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1846478192.707925</v>
+        <v>682184567.3456371</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>TRUMP</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>999999993.45</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>9.23241739222266</v>
+        <v>1.055774912664723</v>
       </c>
       <c r="J60" t="n">
-        <v>207761439.6382333</v>
+        <v>4806153.006861712</v>
       </c>
       <c r="K60" t="n">
-        <v>-11.36811831782191</v>
+        <v>2.528331413344692</v>
       </c>
       <c r="L60" t="n">
-        <v>10.09329724307034</v>
+        <v>1.038388646452243</v>
       </c>
       <c r="M60" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>trump official</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>60000000</v>
+        <v>199999426.984543</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2830881507.077088</v>
+        <v>1888555568.331376</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>TRUMP</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>999999993.45</v>
       </c>
       <c r="I61" t="n">
-        <v>47.18135845128481</v>
+        <v>9.442804896022693</v>
       </c>
       <c r="J61" t="n">
-        <v>3206733.716289033</v>
+        <v>164532598.2746134</v>
       </c>
       <c r="K61" t="n">
-        <v>-2.29870733947952</v>
+        <v>1.026381076009996</v>
       </c>
       <c r="L61" t="n">
-        <v>47.44438048652487</v>
+        <v>9.221849615705519</v>
       </c>
       <c r="M61" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ondo</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3159107529</v>
+        <v>60000000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2500019195.704441</v>
+        <v>2810953916.108098</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7913688194386373</v>
+        <v>46.84923193513497</v>
       </c>
       <c r="J62" t="n">
-        <v>263172550.7415073</v>
+        <v>4838111.621212156</v>
       </c>
       <c r="K62" t="n">
-        <v>-3.799509395465275</v>
+        <v>-2.265618568843636</v>
       </c>
       <c r="L62" t="n">
-        <v>0.8327282311500948</v>
+        <v>46.09820033733401</v>
       </c>
       <c r="M62" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>optimism-ethereum</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>ondo</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1620705846</v>
+        <v>3159107529</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1142899077.502805</v>
+        <v>2591081900.313638</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7051860029526941</v>
+        <v>0.8201942721252772</v>
       </c>
       <c r="J63" t="n">
-        <v>103082744.9633326</v>
+        <v>197769450.8406273</v>
       </c>
       <c r="K63" t="n">
-        <v>-6.911462399149467</v>
+        <v>0.5615920374035313</v>
       </c>
       <c r="L63" t="n">
-        <v>0.7286243291874472</v>
+        <v>0.8025796211358724</v>
       </c>
       <c r="M63" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>optimism-ethereum</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>optimism</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>295394509.7510309</v>
+        <v>1620705846</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>534180343.4006736</v>
+        <v>1133837952.119644</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>450000000</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1.808362463645313</v>
+        <v>0.6995951516544625</v>
       </c>
       <c r="J64" t="n">
-        <v>51409028.96500645</v>
+        <v>75173817.32362688</v>
       </c>
       <c r="K64" t="n">
-        <v>-5.292126898256672</v>
+        <v>-1.94553301800558</v>
       </c>
       <c r="L64" t="n">
-        <v>1.879522899500804</v>
+        <v>0.6885122818490065</v>
       </c>
       <c r="M64" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pax gold</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>210371.22</v>
+        <v>295589394.879398</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>667778818.3984549</v>
+        <v>534145750.3932222</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>450000000</v>
       </c>
       <c r="I65" t="n">
-        <v>3174.287901160886</v>
+        <v>1.807053161062008</v>
       </c>
       <c r="J65" t="n">
-        <v>46514267.27037357</v>
+        <v>33374111.71897752</v>
       </c>
       <c r="K65" t="n">
-        <v>1.272386404231119</v>
+        <v>-3.27570150221055</v>
       </c>
       <c r="L65" t="n">
-        <v>3139.868377735496</v>
+        <v>1.805552562909577</v>
       </c>
       <c r="M65" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>paypal usd</t>
+          <t>pax gold</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>739265391.674938</v>
+        <v>210371.22</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>737713939.0131669</v>
+        <v>656348326.5746477</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PYUSD</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.997901358998754</v>
+        <v>3119.953036231133</v>
       </c>
       <c r="J66" t="n">
-        <v>10969382.0682096</v>
+        <v>64848201.34491014</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.0982497072724397</v>
+        <v>-2.003339005714321</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9984498018536392</v>
+        <v>3124.018588893691</v>
       </c>
       <c r="M66" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>paypal usd</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>420689899653543.6</v>
+        <v>758451321.504411</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2977160679.524661</v>
+        <v>758382202.9796824</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>420690000000000</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>7.0768532403e-06</v>
+        <v>0.9999088688716484</v>
       </c>
       <c r="J67" t="n">
-        <v>857327383.0086402</v>
+        <v>14954437.1756035</v>
       </c>
       <c r="K67" t="n">
-        <v>-8.56607718451925</v>
+        <v>0.1654347863220956</v>
       </c>
       <c r="L67" t="n">
-        <v>7.5063694375e-06</v>
+        <v>0.9987240307708662</v>
       </c>
       <c r="M67" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>6794101040.343596</v>
+        <v>420689899653543.6</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://blockexplorer.minepi.com/</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4455351871.321973</v>
+        <v>2828676423.398164</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>100000000000</v>
+        <v>420690000000000</v>
       </c>
       <c r="I68" t="n">
-        <v>0.6557676791772667</v>
+        <v>6.7238990661e-06</v>
       </c>
       <c r="J68" t="n">
-        <v>102747781.7607116</v>
+        <v>607419249.1765057</v>
       </c>
       <c r="K68" t="n">
-        <v>-7.50397026541286</v>
+        <v>-6.545735208597561</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9351907533812548</v>
+        <v>6.7452907851e-06</v>
       </c>
       <c r="M68" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1522267060</v>
+        <v>6794101040.343596</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>6042437419.121837</v>
+        <v>3826504636.55301</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>100000000000</v>
       </c>
       <c r="I69" t="n">
-        <v>3.969367516315985</v>
+        <v>0.5632098512858582</v>
       </c>
       <c r="J69" t="n">
-        <v>166647428.8715563</v>
+        <v>170035690.4299406</v>
       </c>
       <c r="K69" t="n">
-        <v>-5.041591966032305</v>
+        <v>-16.14139805455092</v>
       </c>
       <c r="L69" t="n">
-        <v>4.115857797966297</v>
+        <v>0.8041652307723401</v>
       </c>
       <c r="M69" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pol (prev. matic)</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10392099602.65343</v>
+        <v>1522267060</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1935203355.764831</v>
+        <v>6122622118.242289</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1862187074564521</v>
+        <v>4.022042044476932</v>
       </c>
       <c r="J70" t="n">
-        <v>77650619.51587778</v>
+        <v>118856607.563993</v>
       </c>
       <c r="K70" t="n">
-        <v>-7.899777852231545</v>
+        <v>-1.120321892284283</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1951577902823479</v>
+        <v>3.983208329433817</v>
       </c>
       <c r="M70" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>pol (prev. matic)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>12072738</v>
+        <v>10392099602.65343</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>800796059.1185056</v>
+        <v>1976558181.292787</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>14881364</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>66.33093993413139</v>
+        <v>0.1901981559903554</v>
       </c>
       <c r="J71" t="n">
-        <v>20273237.41948415</v>
+        <v>47652838.39387151</v>
       </c>
       <c r="K71" t="n">
-        <v>-5.980282258143352</v>
+        <v>-0.0105678979593152</v>
       </c>
       <c r="L71" t="n">
-        <v>68.94436600049748</v>
+        <v>0.1859933339740156</v>
       </c>
       <c r="M71" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>290814662.067804</v>
+        <v>12072738</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>551352890.8105441</v>
+        <v>823170158.1293001</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>555000000</v>
+        <v>14881364</v>
       </c>
       <c r="I72" t="n">
-        <v>1.895890966742231</v>
+        <v>68.18421456088089</v>
       </c>
       <c r="J72" t="n">
-        <v>120346457.7353365</v>
+        <v>17204987.56875176</v>
       </c>
       <c r="K72" t="n">
-        <v>5.03505853739414</v>
+        <v>2.924317380180441</v>
       </c>
       <c r="L72" t="n">
-        <v>1.897755625099468</v>
+        <v>67.43452257779391</v>
       </c>
       <c r="M72" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="73">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1717476317.117153</v>
+        <v>1695536295.247552</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4157,19 +4157,19 @@
         <v>644168762</v>
       </c>
       <c r="I73" t="n">
-        <v>3.317406376586157</v>
+        <v>3.27502793577317</v>
       </c>
       <c r="J73" t="n">
-        <v>108154873.7611594</v>
+        <v>66891504.14211256</v>
       </c>
       <c r="K73" t="n">
-        <v>-10.23816291581076</v>
+        <v>-3.561122479303643</v>
       </c>
       <c r="L73" t="n">
-        <v>3.605346836799468</v>
+        <v>3.255641069882064</v>
       </c>
       <c r="M73" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="74">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>806429664.2882833</v>
+        <v>802491995.0196371</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4208,19 +4208,19 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1651720644897385</v>
+        <v>0.1643655552662043</v>
       </c>
       <c r="J74" t="n">
-        <v>86287909.43742651</v>
+        <v>52797208.43061333</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.582862682929049</v>
+        <v>-1.654376194476819</v>
       </c>
       <c r="L74" t="n">
-        <v>0.170363420272955</v>
+        <v>0.1623764884374243</v>
       </c>
       <c r="M74" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="75">
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>589250687620781.9</v>
+        <v>589250651184905.6</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>7130582238.954036</v>
+        <v>7149207058.835785</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4259,19 +4259,19 @@
         <v>589552695333683</v>
       </c>
       <c r="I75" t="n">
-        <v>1.21011012609e-05</v>
+        <v>1.21327096448e-05</v>
       </c>
       <c r="J75" t="n">
-        <v>179160700.839706</v>
+        <v>91280763.44489278</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.644632285239338</v>
+        <v>-1.69020293345146</v>
       </c>
       <c r="L75" t="n">
-        <v>1.24948779869e-05</v>
+        <v>1.21774413298e-05</v>
       </c>
       <c r="M75" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="76">
@@ -4287,11 +4287,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>512503882.2685171</v>
+        <v>514450631.2156934</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>60990505066.92032</v>
+        <v>59430679232.17687</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4310,19 +4310,19 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>119.0049620638102</v>
+        <v>115.5226092185693</v>
       </c>
       <c r="J76" t="n">
-        <v>3399476275.70703</v>
+        <v>2525427124.35488</v>
       </c>
       <c r="K76" t="n">
-        <v>-6.103722973609886</v>
+        <v>-3.594384912688092</v>
       </c>
       <c r="L76" t="n">
-        <v>127.414223960994</v>
+        <v>116.3585335323666</v>
       </c>
       <c r="M76" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="77">
@@ -4338,11 +4338,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1519731982.98976</v>
+        <v>1519909933.85237</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>877228249.2018611</v>
+        <v>883431904.5986801</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4361,19 +4361,19 @@
         <v>1818000000</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5772256286112338</v>
+        <v>0.5812396411934291</v>
       </c>
       <c r="J77" t="n">
-        <v>29027972.61364048</v>
+        <v>17268145.20697617</v>
       </c>
       <c r="K77" t="n">
-        <v>-6.585986887534649</v>
+        <v>-1.88619733834752</v>
       </c>
       <c r="L77" t="n">
-        <v>0.6097112379450383</v>
+        <v>0.578198447402745</v>
       </c>
       <c r="M77" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="78">
@@ -4393,7 +4393,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>30777463547.83699</v>
+        <v>30778563460.85003</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>7968470554.041636</v>
+        <v>7982481164.935516</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4412,19 +4412,19 @@
         <v>50001806812</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2589060187385602</v>
+        <v>0.2593519731708447</v>
       </c>
       <c r="J78" t="n">
-        <v>130780348.6522674</v>
+        <v>79689196.59235348</v>
       </c>
       <c r="K78" t="n">
-        <v>-5.267890233323442</v>
+        <v>-1.411471254320873</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2683813600779731</v>
+        <v>0.258734963704225</v>
       </c>
       <c r="M78" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="79">
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>9378159.597108899</v>
+        <v>9374205.46261983</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>16879794298.3194</v>
+        <v>16853468197.57886</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4463,19 +4463,19 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1799.904781266796</v>
+        <v>1797.855643849819</v>
       </c>
       <c r="J79" t="n">
-        <v>8071686.415306392</v>
+        <v>8591236.629193015</v>
       </c>
       <c r="K79" t="n">
-        <v>-5.46229634098341</v>
+        <v>-1.773799994833026</v>
       </c>
       <c r="L79" t="n">
-        <v>1844.008051445634</v>
+        <v>1791.56336573935</v>
       </c>
       <c r="M79" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="80">
@@ -4491,11 +4491,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>258992823</v>
+        <v>259071202</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1123963831.09167</v>
+        <v>1086778652.242712</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4514,19 +4514,19 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>4.339748947760109</v>
+        <v>4.194903346465778</v>
       </c>
       <c r="J80" t="n">
-        <v>130031223.4069393</v>
+        <v>42801485.16731184</v>
       </c>
       <c r="K80" t="n">
-        <v>-5.476329018739941</v>
+        <v>-6.275937203695041</v>
       </c>
       <c r="L80" t="n">
-        <v>4.346269016595579</v>
+        <v>4.297879927114833</v>
       </c>
       <c r="M80" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="81">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -4554,7 +4554,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>7499759647.185512</v>
+        <v>7190619044.423847</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4565,19 +4565,19 @@
         <v>10000000000</v>
       </c>
       <c r="I81" t="n">
-        <v>2.30763049434093</v>
+        <v>2.212509808408085</v>
       </c>
       <c r="J81" t="n">
-        <v>950035602.421998</v>
+        <v>842236546.6902477</v>
       </c>
       <c r="K81" t="n">
-        <v>-4.117106243270884</v>
+        <v>-8.133319049495357</v>
       </c>
       <c r="L81" t="n">
-        <v>2.422450582971347</v>
+        <v>2.278888869768251</v>
       </c>
       <c r="M81" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="82">
@@ -4597,7 +4597,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>144034280963.4801</v>
+        <v>144086679997.8651</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>143983896070.6564</v>
+        <v>144232177004.9569</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4616,19 +4616,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9996501881879324</v>
+        <v>1.001009788046292</v>
       </c>
       <c r="J82" t="n">
-        <v>43598985117.606</v>
+        <v>33326605272.696</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.1791141347037187</v>
+        <v>0.1253355354126054</v>
       </c>
       <c r="L82" t="n">
-        <v>1.000001920585212</v>
+        <v>1.000186847194892</v>
       </c>
       <c r="M82" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="83">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>781997690.0747724</v>
+        <v>770886899.9651258</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4667,19 +4667,19 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>3172.095577204541</v>
+        <v>3127.025766112532</v>
       </c>
       <c r="J83" t="n">
-        <v>18621606.60657396</v>
+        <v>24308559.47933688</v>
       </c>
       <c r="K83" t="n">
-        <v>1.143760251963453</v>
+        <v>-1.608227973944096</v>
       </c>
       <c r="L83" t="n">
-        <v>3141.467374037427</v>
+        <v>3138.661349929444</v>
       </c>
       <c r="M83" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="84">
@@ -4695,11 +4695,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1037550271.786468</v>
+        <v>1037633158.106399</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>671528079.5623716</v>
+        <v>672914491.5901417</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4718,19 +4718,19 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.6472246192043548</v>
+        <v>0.6485090480513932</v>
       </c>
       <c r="J84" t="n">
-        <v>12713086.57310508</v>
+        <v>16183826.106384</v>
       </c>
       <c r="K84" t="n">
-        <v>-2.513915187306576</v>
+        <v>-2.132803069756521</v>
       </c>
       <c r="L84" t="n">
-        <v>0.6575912659797805</v>
+        <v>0.6516303674777812</v>
       </c>
       <c r="M84" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="85">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>811294638.1934762</v>
+        <v>803987176.054563</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4769,19 +4769,19 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.08299528251410671</v>
+        <v>0.0822477305691922</v>
       </c>
       <c r="J85" t="n">
-        <v>17460462.0733827</v>
+        <v>15552392.4943102</v>
       </c>
       <c r="K85" t="n">
-        <v>-8.082153603322231</v>
+        <v>-2.78651195406987</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0871543507481238</v>
+        <v>0.0823187111796653</v>
       </c>
       <c r="M85" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="86">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>640375514.1572475</v>
+        <v>647815934.4841284</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4820,19 +4820,19 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2580747073404595</v>
+        <v>0.2610732359473454</v>
       </c>
       <c r="J86" t="n">
-        <v>30344471.81336081</v>
+        <v>17802608.35254535</v>
       </c>
       <c r="K86" t="n">
-        <v>-6.667223551153076</v>
+        <v>-1.020153167917938</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2698282551248925</v>
+        <v>0.2593811432076112</v>
       </c>
       <c r="M86" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="87">
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>774262814.1280754</v>
+        <v>779391668.7351254</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4871,19 +4871,19 @@
         <v>1000000000</v>
       </c>
       <c r="I87" t="n">
-        <v>0.7742628141280753</v>
+        <v>0.7793916687351256</v>
       </c>
       <c r="J87" t="n">
-        <v>19909220.01064276</v>
+        <v>15632203.65506271</v>
       </c>
       <c r="K87" t="n">
-        <v>-7.393829533172084</v>
+        <v>-2.750453165302337</v>
       </c>
       <c r="L87" t="n">
-        <v>0.8156109411025807</v>
+        <v>0.7820274086110005</v>
       </c>
       <c r="M87" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="88">
@@ -4899,11 +4899,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2461769440.370948</v>
+        <v>2473007671.382806</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>9468226533.443558</v>
+        <v>8694959472.116371</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4922,19 +4922,19 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>3.846106129263207</v>
+        <v>3.515945208230793</v>
       </c>
       <c r="J88" t="n">
-        <v>140650888.8277465</v>
+        <v>127467371.1532184</v>
       </c>
       <c r="K88" t="n">
-        <v>-5.358070017423121</v>
+        <v>-8.133798657594477</v>
       </c>
       <c r="L88" t="n">
-        <v>4.012363677399273</v>
+        <v>3.635128036242974</v>
       </c>
       <c r="M88" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="89">
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>94985541388.86099</v>
+        <v>94982643679.60722</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>22176014805.13853</v>
+        <v>22679918094.50926</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4973,19 +4973,19 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2334672675534081</v>
+        <v>0.2387796045245121</v>
       </c>
       <c r="J89" t="n">
-        <v>360646827.685981</v>
+        <v>265942595.2094364</v>
       </c>
       <c r="K89" t="n">
-        <v>-1.87274892170533</v>
+        <v>1.164108343530092</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2377132718794603</v>
+        <v>0.2355714971535056</v>
       </c>
       <c r="M89" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="90">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3686577654.525324</v>
+        <v>3670315024.796194</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5024,19 +5024,19 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>5.865731945907406</v>
+        <v>5.839856395284045</v>
       </c>
       <c r="J90" t="n">
-        <v>105605019.3122833</v>
+        <v>71898587.64939344</v>
       </c>
       <c r="K90" t="n">
-        <v>-6.695935853896648</v>
+        <v>-2.512200257502259</v>
       </c>
       <c r="L90" t="n">
-        <v>6.146201163461408</v>
+        <v>5.855884599483908</v>
       </c>
       <c r="M90" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="91">
@@ -5052,11 +5052,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>923812201.9</v>
+        <v>923803780.9</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>8620721841.209597</v>
+        <v>8801225034.959442</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5075,19 +5075,19 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>9.331682157346915</v>
+        <v>9.527158490718669</v>
       </c>
       <c r="J91" t="n">
-        <v>7357546.94693044</v>
+        <v>4465538.032994277</v>
       </c>
       <c r="K91" t="n">
-        <v>0.2364827018646868</v>
+        <v>1.778841309198131</v>
       </c>
       <c r="L91" t="n">
-        <v>9.396434383128698</v>
+        <v>9.188961738686428</v>
       </c>
       <c r="M91" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="92">
@@ -5103,11 +5103,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>60649816501.55631</v>
+        <v>60870184064.31027</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>60710455106.51096</v>
+        <v>60787223223.35472</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5126,19 +5126,19 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1.000999815142938</v>
+        <v>0.9986370857550242</v>
       </c>
       <c r="J92" t="n">
-        <v>9129723236.703239</v>
+        <v>7313590304.825809</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0486903374337158</v>
+        <v>-0.1630551898069191</v>
       </c>
       <c r="L92" t="n">
-        <v>0.999899637711692</v>
+        <v>1.000267073912233</v>
       </c>
       <c r="M92" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="93">
@@ -5154,11 +5154,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>872045271.8289261</v>
+        <v>845594423.8423951</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>870092925.1567833</v>
+        <v>843387801.7890285</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5177,19 +5177,19 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9977611865631149</v>
+        <v>0.997390448670014</v>
       </c>
       <c r="J93" t="n">
-        <v>10624202.75699594</v>
+        <v>34169057.31304596</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.0108396743382976</v>
+        <v>-0.0319071344452438</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="94">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1854343290.818481</v>
+        <v>1864437882.203944</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -5228,19 +5228,19 @@
         <v>86712634466</v>
       </c>
       <c r="I94" t="n">
-        <v>0.021565882453918</v>
+        <v>0.0216832818439431</v>
       </c>
       <c r="J94" t="n">
-        <v>33884662.27739409</v>
+        <v>24633194.03458522</v>
       </c>
       <c r="K94" t="n">
-        <v>-8.099949292330598</v>
+        <v>-1.781845966916202</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0228479790826884</v>
+        <v>0.0215746159394813</v>
       </c>
       <c r="M94" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="95">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -5268,7 +5268,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>936777558.5390563</v>
+        <v>955007735.6766</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5279,19 +5279,19 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>591.8167339160372</v>
+        <v>603.3337944966488</v>
       </c>
       <c r="J95" t="n">
-        <v>9414724.484843761</v>
+        <v>10242295.58107941</v>
       </c>
       <c r="K95" t="n">
-        <v>-4.08187890908625</v>
+        <v>0.41775367869116</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="96">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>6073976288.754498</v>
+        <v>6087581874.875412</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5330,19 +5330,19 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1799.527339882505</v>
+        <v>1803.558245344721</v>
       </c>
       <c r="J96" t="n">
-        <v>762771151.449468</v>
+        <v>351634607.8866503</v>
       </c>
       <c r="K96" t="n">
-        <v>-5.631757992512459</v>
+        <v>-1.391496265489021</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="97">
@@ -5358,11 +5358,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1223649706.21482</v>
+        <v>1226340536.305477</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>885343051.8002102</v>
+        <v>929076727.5117805</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5381,19 +5381,19 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7235265511883205</v>
+        <v>0.757600927317264</v>
       </c>
       <c r="J97" t="n">
-        <v>124472712.5707124</v>
+        <v>89294132.28846624</v>
       </c>
       <c r="K97" t="n">
-        <v>-10.14228398185226</v>
+        <v>1.051734523715445</v>
       </c>
       <c r="L97" t="n">
-        <v>0.7755519829311917</v>
+        <v>0.738976151135768</v>
       </c>
       <c r="M97" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="98">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>10636821595.39588</v>
+        <v>10659287443.14686</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5432,19 +5432,19 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>82406.53391187041</v>
+        <v>82580.58333330203</v>
       </c>
       <c r="J98" t="n">
-        <v>213724793.31217</v>
+        <v>171204770.0022462</v>
       </c>
       <c r="K98" t="n">
-        <v>-3.000200003370273</v>
+        <v>-1.117992187432429</v>
       </c>
       <c r="L98" t="n">
-        <v>85698.13617221026</v>
+        <v>81707.82641790783</v>
       </c>
       <c r="M98" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="99">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1019376585.622817</v>
+        <v>1047134886.01604</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5483,19 +5483,19 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.064958837344794</v>
+        <v>0.0667277095610512</v>
       </c>
       <c r="J99" t="n">
-        <v>25689817.8851878</v>
+        <v>26877605.16282525</v>
       </c>
       <c r="K99" t="n">
-        <v>-5.902535511561664</v>
+        <v>0.6577119765427367</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06741411236230881</v>
+        <v>0.0657912389006506</v>
       </c>
       <c r="M99" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="100">
@@ -5515,7 +5515,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>58205697378</v>
+        <v>58274974538</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>118253432675.7567</v>
+        <v>119781574734.2609</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5534,19 +5534,19 @@
         <v>100000000000</v>
       </c>
       <c r="I100" t="n">
-        <v>2.031647038051861</v>
+        <v>2.055454775980273</v>
       </c>
       <c r="J100" t="n">
-        <v>2728488359.633981</v>
+        <v>2176951429.442692</v>
       </c>
       <c r="K100" t="n">
-        <v>-5.061947714002973</v>
+        <v>-0.055629446919071</v>
       </c>
       <c r="L100" t="n">
-        <v>2.11526726228325</v>
+        <v>2.030981116534392</v>
       </c>
       <c r="M100" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="101">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -5574,7 +5574,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>620064789.6743512</v>
+        <v>617493289.6408389</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5585,19 +5585,19 @@
         <v>21000000</v>
       </c>
       <c r="I101" t="n">
-        <v>39.03013634221417</v>
+        <v>38.86827261670783</v>
       </c>
       <c r="J101" t="n">
-        <v>16863800.70170405</v>
+        <v>17589606.82435981</v>
       </c>
       <c r="K101" t="n">
-        <v>-4.546487086469445</v>
+        <v>-1.811229938871117</v>
       </c>
       <c r="L101" t="n">
-        <v>40.30797525942357</v>
+        <v>38.89558096499874</v>
       </c>
       <c r="M101" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/enriched_data/enriched_data.xlsx
+++ b/src/static/enriched_data/enriched_data.xlsx
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2251930389.419629</v>
+        <v>2254443603.579769</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -536,19 +536,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>149.1650045945058</v>
+        <v>149.3314767037262</v>
       </c>
       <c r="J2" t="n">
-        <v>104199265.6277883</v>
+        <v>104008944.5786416</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.701634394600537</v>
+        <v>-3.151058671505672</v>
       </c>
       <c r="L2" t="n">
         <v>151.1010997107187</v>
       </c>
       <c r="M2" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="3">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1536756629.709208</v>
+        <v>1540096770.409258</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -587,19 +587,19 @@
         <v>10000000000</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1800405969872876</v>
+        <v>0.1804319152442143</v>
       </c>
       <c r="J3" t="n">
-        <v>50083736.09387279</v>
+        <v>50246179.23623055</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.2703286499111477</v>
+        <v>0.2262622641024256</v>
       </c>
       <c r="L3" t="n">
         <v>0.1763102660009111</v>
       </c>
       <c r="M3" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="4">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3027303615.549763</v>
+        <v>3036171573.969729</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.008177056728117</v>
+        <v>5.022847638717572</v>
       </c>
       <c r="J4" t="n">
-        <v>80939686.93577206</v>
+        <v>81314282.61564919</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.320487874997162</v>
+        <v>-3.905578485789644</v>
       </c>
       <c r="L4" t="n">
         <v>5.081138319926136</v>
       </c>
       <c r="M4" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="5">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1428742696.010017</v>
+        <v>1433271486.071678</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -689,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3093914051768635</v>
+        <v>0.3103721057080656</v>
       </c>
       <c r="J5" t="n">
-        <v>83816986.13021366</v>
+        <v>84119862.28979014</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.632127652267372</v>
+        <v>-1.216976100364943</v>
       </c>
       <c r="L5" t="n">
         <v>0.3055241213400205</v>
       </c>
       <c r="M5" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="6">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7507349560.392557</v>
+        <v>7513765081.376249</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -740,19 +740,19 @@
         <v>715748719</v>
       </c>
       <c r="I6" t="n">
-        <v>18.09293782842822</v>
+        <v>18.10839942660761</v>
       </c>
       <c r="J6" t="n">
-        <v>158483046.5322474</v>
+        <v>158501147.7565454</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.848614644554627</v>
+        <v>-2.469511805867256</v>
       </c>
       <c r="L6" t="n">
         <v>18.20884657264996</v>
       </c>
       <c r="M6" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="7">
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>648724459.8652017</v>
+        <v>647760253.0012007</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6.035769072061794</v>
+        <v>6.026798036855236</v>
       </c>
       <c r="J7" t="n">
-        <v>123360041.1774452</v>
+        <v>123635761.0832332</v>
       </c>
       <c r="K7" t="n">
-        <v>-9.872110249925662</v>
+        <v>-9.58068979598684</v>
       </c>
       <c r="L7" t="n">
         <v>6.20480167076702</v>
       </c>
       <c r="M7" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="8">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>85245710974.68388</v>
+        <v>85330557169.34145</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -842,19 +842,19 @@
         <v>144006830</v>
       </c>
       <c r="I8" t="n">
-        <v>591.9560271876264</v>
+        <v>592.5452089275309</v>
       </c>
       <c r="J8" t="n">
-        <v>657429420.0399308</v>
+        <v>657356042.526141</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.926586888664134</v>
+        <v>-1.628162880294082</v>
       </c>
       <c r="L8" t="n">
         <v>595.310906111476</v>
       </c>
       <c r="M8" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="9">
@@ -870,7 +870,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>830544470.6809145</v>
+        <v>829706005.3515067</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -893,19 +893,19 @@
         <v>580000000</v>
       </c>
       <c r="I9" t="n">
-        <v>2.174955981408965</v>
+        <v>2.172760282987297</v>
       </c>
       <c r="J9" t="n">
-        <v>11380600.41532334</v>
+        <v>11371099.54993062</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.3909122075854143</v>
+        <v>-0.0100549939920092</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="10">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1645455068329.599</v>
+        <v>1646598735231.417</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -944,19 +944,19 @@
         <v>21000000</v>
       </c>
       <c r="I10" t="n">
-        <v>82910.2043773248</v>
+        <v>82967.83078013238</v>
       </c>
       <c r="J10" t="n">
-        <v>14252713672.21245</v>
+        <v>14107744433.54874</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.9832242352240396</v>
+        <v>-0.6584580127744259</v>
       </c>
       <c r="L10" t="n">
         <v>82471.92050737684</v>
       </c>
       <c r="M10" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="11">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5406915597.290776</v>
+        <v>5400664667.563888</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>82918.33743423116</v>
+        <v>82822.4756270612</v>
       </c>
       <c r="J11" t="n">
-        <v>1329194.124141878</v>
+        <v>1346011.728252283</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="12">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5981333587.628716</v>
+        <v>5987629528.959108</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1046,19 +1046,19 @@
         <v>21000000</v>
       </c>
       <c r="I12" t="n">
-        <v>301.3094574964696</v>
+        <v>301.6266153073321</v>
       </c>
       <c r="J12" t="n">
-        <v>120834301.9356934</v>
+        <v>121146470.5067753</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0132785752305981</v>
+        <v>0.07085612745905499</v>
       </c>
       <c r="L12" t="n">
         <v>300.0563088431247</v>
       </c>
       <c r="M12" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="13">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>605766754.4992813</v>
+        <v>606575928.6660298</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1097,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>30.52229108613932</v>
+        <v>30.56306230587603</v>
       </c>
       <c r="J13" t="n">
-        <v>16101837.03713503</v>
+        <v>15853700.57689052</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.967020938898063</v>
+        <v>-1.779537184702424</v>
       </c>
       <c r="L13" t="n">
         <v>30.48965041902097</v>
       </c>
       <c r="M13" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="14">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5384848075.618716</v>
+        <v>5381097135.256779</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1148,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.48737339634893</v>
+        <v>4.484247612713983</v>
       </c>
       <c r="J14" t="n">
-        <v>130350448.3864484</v>
+        <v>129282352.1191771</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.587327168068107</v>
+        <v>-1.365846354239278</v>
       </c>
       <c r="L14" t="n">
         <v>4.40791209149584</v>
       </c>
       <c r="M14" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="15">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1846463934.590856</v>
+        <v>1846890920.009128</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1199,19 +1199,19 @@
         <v>21000000</v>
       </c>
       <c r="I15" t="n">
-        <v>215.8595556971618</v>
+        <v>215.9094721244208</v>
       </c>
       <c r="J15" t="n">
-        <v>75299193.54599676</v>
+        <v>75111682.29650892</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.8799862493909067</v>
+        <v>-0.1928029677414954</v>
       </c>
       <c r="L15" t="n">
         <v>209.1094002906921</v>
       </c>
       <c r="M15" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="16">
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>618835633.1392488</v>
+        <v>618858681.5296142</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1250,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6.275834289e-07</v>
+        <v>6.276068031e-07</v>
       </c>
       <c r="J16" t="n">
-        <v>2672549.132679281</v>
+        <v>2671118.576415078</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.831034134731635</v>
+        <v>-1.705578097162842</v>
       </c>
       <c r="L16" t="n">
         <v>6.310559119e-07</v>
       </c>
       <c r="M16" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="17">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>848821198.1726248</v>
+        <v>850694144.3058498</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1301,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.08971074636e-05</v>
+        <v>1.09211522157e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>70618971.68768366</v>
+        <v>70722790.8920752</v>
       </c>
       <c r="K17" t="n">
-        <v>-4.392838619663869</v>
+        <v>-3.464124343501787</v>
       </c>
       <c r="L17" t="n">
         <v>1.09112235835e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="18">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>22833704989.2944</v>
+        <v>22907170408.59418</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1352,19 +1352,19 @@
         <v>45000000000</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6474338634205431</v>
+        <v>0.6495169244160043</v>
       </c>
       <c r="J18" t="n">
-        <v>386661232.3456318</v>
+        <v>384736081.6159794</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.9594468516662388</v>
+        <v>-0.4898134003728241</v>
       </c>
       <c r="L18" t="n">
         <v>0.6375039400318576</v>
       </c>
       <c r="M18" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="19">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1662776684.122552</v>
+        <v>1665964719.856101</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1403,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2.839803124686236</v>
+        <v>2.845247868965004</v>
       </c>
       <c r="J19" t="n">
-        <v>73854421.55163196</v>
+        <v>74166541.7648208</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.382631225863868</v>
+        <v>-3.393402289735247</v>
       </c>
       <c r="L19" t="n">
         <v>2.798522828910369</v>
       </c>
       <c r="M19" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="20">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8388795396.303823</v>
+        <v>8403976328.942166</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>12.76639137652581</v>
+        <v>12.78949430350948</v>
       </c>
       <c r="J20" t="n">
-        <v>301182209.8381416</v>
+        <v>302391632.4867342</v>
       </c>
       <c r="K20" t="n">
-        <v>-3.278048130974145</v>
+        <v>-2.840087642649898</v>
       </c>
       <c r="L20" t="n">
         <v>12.74915569325054</v>
       </c>
       <c r="M20" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="21">
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1830111374.674361</v>
+        <v>1840368304.463784</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4.681379515910461</v>
+        <v>4.707616487975004</v>
       </c>
       <c r="J21" t="n">
-        <v>88316241.2324246</v>
+        <v>90182599.78387101</v>
       </c>
       <c r="K21" t="n">
-        <v>6.179953015103079</v>
+        <v>7.319341680645476</v>
       </c>
       <c r="L21" t="n">
         <v>4.486329507123636</v>
       </c>
       <c r="M21" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="22">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2510011282.610254</v>
+        <v>2508854481.305764</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1556,19 +1556,19 @@
         <v>30263013692</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0944623204984758</v>
+        <v>0.0944187851819874</v>
       </c>
       <c r="J22" t="n">
-        <v>28741091.00565905</v>
+        <v>28814881.358721</v>
       </c>
       <c r="K22" t="n">
-        <v>-4.953951993470424</v>
+        <v>-4.571022323527967</v>
       </c>
       <c r="L22" t="n">
         <v>0.09581994412112541</v>
       </c>
       <c r="M22" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="23">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>675509751.865934</v>
+        <v>680596986.34711</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1607,19 +1607,19 @@
         <v>3030303030.299</v>
       </c>
       <c r="I23" t="n">
-        <v>0.515449517707132</v>
+        <v>0.5193313455453565</v>
       </c>
       <c r="J23" t="n">
-        <v>132012358.0597956</v>
+        <v>133595216.787459</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.60852698450728</v>
+        <v>0.2679589568154061</v>
       </c>
       <c r="L23" t="n">
         <v>0.5146555420974264</v>
       </c>
       <c r="M23" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="24">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1250463475.41805</v>
+        <v>1246753450.860751</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.93387554920966</v>
+        <v>14.88956794158068</v>
       </c>
       <c r="J24" t="n">
-        <v>14858363.77245131</v>
+        <v>14051487.19432324</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.1185698548443233</v>
+        <v>0.1438644579979632</v>
       </c>
       <c r="L24" t="n">
         <v>14.99442572133488</v>
       </c>
       <c r="M24" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="25">
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>24022255961.98788</v>
+        <v>24087585742.23228</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1709,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1615422713868557</v>
+        <v>0.1619815940344282</v>
       </c>
       <c r="J25" t="n">
-        <v>777704463.3575494</v>
+        <v>780279456.2710433</v>
       </c>
       <c r="K25" t="n">
-        <v>-2.851300428843161</v>
+        <v>-2.195529296551846</v>
       </c>
       <c r="L25" t="n">
         <v>0.160406295303844</v>
       </c>
       <c r="M25" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="26">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1324481806.397239</v>
+        <v>1313792591.457205</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1760,19 +1760,19 @@
         <v>2100000000</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8508576725555305</v>
+        <v>0.8439908356526797</v>
       </c>
       <c r="J26" t="n">
-        <v>415040297.8732621</v>
+        <v>411480169.5327688</v>
       </c>
       <c r="K26" t="n">
-        <v>1.283810719307889</v>
+        <v>1.158479088104762</v>
       </c>
       <c r="L26" t="n">
         <v>0.8241222227342992</v>
       </c>
       <c r="M26" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="27">
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1655459686.522244</v>
+        <v>1655783569.038651</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1811,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3131818502436406</v>
+        <v>0.3132431227267917</v>
       </c>
       <c r="J27" t="n">
-        <v>158421608.3451165</v>
+        <v>158120965.8952818</v>
       </c>
       <c r="K27" t="n">
-        <v>-7.23160390068061</v>
+        <v>-6.985093351622086</v>
       </c>
       <c r="L27" t="n">
         <v>0.3124894893270447</v>
       </c>
       <c r="M27" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="28">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5249076389.421836</v>
+        <v>5248524751.149027</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1862,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9994212553264432</v>
+        <v>0.9993162237029356</v>
       </c>
       <c r="J28" t="n">
-        <v>72089375.17657015</v>
+        <v>71705499.78887968</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0344723059474687</v>
+        <v>-0.0329036455533856</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="29">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>217347221316.2245</v>
+        <v>216950970985.5372</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1913,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1801.215745727916</v>
+        <v>1797.931911085073</v>
       </c>
       <c r="J29" t="n">
-        <v>8379047521.158787</v>
+        <v>8429271203.023238</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.430061156939054</v>
+        <v>-1.523172169102461</v>
       </c>
       <c r="L29" t="n">
         <v>1795.76173761577</v>
       </c>
       <c r="M29" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="30">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2439870589.543532</v>
+        <v>2444652886.993679</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1964,19 +1964,19 @@
         <v>210700000</v>
       </c>
       <c r="I30" t="n">
-        <v>16.1173086162319</v>
+        <v>16.14889953922141</v>
       </c>
       <c r="J30" t="n">
-        <v>59310036.86176227</v>
+        <v>59069037.67105198</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.865082444878315</v>
+        <v>-1.437916792370126</v>
       </c>
       <c r="L30" t="n">
         <v>16.13367814169355</v>
       </c>
       <c r="M30" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="31">
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>536484366.6070729</v>
+        <v>536249794.0901753</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2015,19 +2015,19 @@
         <v>100000000</v>
       </c>
       <c r="I31" t="n">
-        <v>15.07003785805716</v>
+        <v>15.06344863210736</v>
       </c>
       <c r="J31" t="n">
-        <v>35032077.57525265</v>
+        <v>34961162.07946527</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.266696590915513</v>
+        <v>-1.865487156681076</v>
       </c>
       <c r="L31" t="n">
         <v>15.06773720321074</v>
       </c>
       <c r="M31" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="32">
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1386303176.027496</v>
+        <v>1386990752.048404</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2066,19 +2066,19 @@
         <v>3175000000</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4813552694539918</v>
+        <v>0.4815940111279182</v>
       </c>
       <c r="J32" t="n">
-        <v>103745700.6901038</v>
+        <v>103957074.7922123</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3246189886181707</v>
+        <v>0.4118091644636182</v>
       </c>
       <c r="L32" t="n">
         <v>0.4637408903545136</v>
       </c>
       <c r="M32" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="33">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1089463831.667597</v>
+        <v>1091583832.133298</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2117,19 +2117,19 @@
         <v>2630547141</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4323269173284117</v>
+        <v>0.4331681873544833</v>
       </c>
       <c r="J33" t="n">
-        <v>66269380.35850753</v>
+        <v>66373735.21367005</v>
       </c>
       <c r="K33" t="n">
-        <v>-2.846092790340318</v>
+        <v>-2.658909582988343</v>
       </c>
       <c r="L33" t="n">
         <v>0.4293153537259046</v>
       </c>
       <c r="M33" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="34">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1758385592.36331</v>
+        <v>1761381396.987541</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.717184817273062</v>
+        <v>2.721814151632846</v>
       </c>
       <c r="J34" t="n">
-        <v>77907897.46274142</v>
+        <v>78186334.12325983</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.973004652134732</v>
+        <v>-1.535501391559884</v>
       </c>
       <c r="L34" t="n">
         <v>2.695478612262973</v>
       </c>
       <c r="M34" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="35">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2351176923.70078</v>
+        <v>2351184089.48359</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2219,19 +2219,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9945435438227724</v>
+        <v>0.9945465749358112</v>
       </c>
       <c r="J35" t="n">
-        <v>1893500302.29047</v>
+        <v>1892247179.145456</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8580311781834178</v>
+        <v>0.8997218006979488</v>
       </c>
       <c r="L35" t="n">
         <v>0.9929297843495152</v>
       </c>
       <c r="M35" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="36">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>793778552.6324067</v>
+        <v>794664818.6886672</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2270,19 +2270,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0130162489996485</v>
+        <v>0.0130307818433868</v>
       </c>
       <c r="J36" t="n">
-        <v>12437019.23299014</v>
+        <v>12503437.47487894</v>
       </c>
       <c r="K36" t="n">
-        <v>-2.878247911185047</v>
+        <v>-2.584291510422942</v>
       </c>
       <c r="L36" t="n">
         <v>0.0131699390999529</v>
       </c>
       <c r="M36" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="37">
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>581279954.32868</v>
+        <v>582062382.8490387</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2321,19 +2321,19 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3692971991273471</v>
+        <v>0.3697942894861906</v>
       </c>
       <c r="J37" t="n">
-        <v>11313506.36346879</v>
+        <v>10918914.91538373</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.764388635932471</v>
+        <v>-1.537132644842712</v>
       </c>
       <c r="L37" t="n">
         <v>0.3687950927488156</v>
       </c>
       <c r="M37" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="38">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>652003869.6162957</v>
+        <v>652769598.9738292</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2372,19 +2372,19 @@
         <v>50000000000</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0148788872259507</v>
+        <v>0.0148963613565307</v>
       </c>
       <c r="J38" t="n">
-        <v>38541874.30437732</v>
+        <v>38555764.71021952</v>
       </c>
       <c r="K38" t="n">
-        <v>-2.20056844700479</v>
+        <v>-2.03273095947239</v>
       </c>
       <c r="L38" t="n">
         <v>0.0147510890254554</v>
       </c>
       <c r="M38" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="39">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1891153862.658108</v>
+        <v>1895039081.183438</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2423,19 +2423,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>22.03404730348284</v>
+        <v>22.07931442344692</v>
       </c>
       <c r="J39" t="n">
-        <v>10814573.08471378</v>
+        <v>11240339.54068914</v>
       </c>
       <c r="K39" t="n">
-        <v>-1.811816907996373</v>
+        <v>-1.362300704773475</v>
       </c>
       <c r="L39" t="n">
         <v>21.88499817138331</v>
       </c>
       <c r="M39" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="40">
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6769945155.097817</v>
+        <v>6774138057.537104</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2474,19 +2474,19 @@
         <v>50000000000</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1603515264017448</v>
+        <v>0.1604508386252252</v>
       </c>
       <c r="J40" t="n">
-        <v>175839960.801695</v>
+        <v>176713312.0481498</v>
       </c>
       <c r="K40" t="n">
-        <v>-2.768013581938662</v>
+        <v>-2.846799036736833</v>
       </c>
       <c r="L40" t="n">
         <v>0.1608280285671282</v>
       </c>
       <c r="M40" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="41">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2514,7 +2514,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3945453821.585091</v>
+        <v>3942293145.254296</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2525,19 +2525,19 @@
         <v>1000000000</v>
       </c>
       <c r="I41" t="n">
-        <v>11.81527663099619</v>
+        <v>11.80581149292131</v>
       </c>
       <c r="J41" t="n">
-        <v>35642009.83403029</v>
+        <v>35541700.03152765</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.276051737277441</v>
+        <v>-4.610231566183733</v>
       </c>
       <c r="L41" t="n">
         <v>11.67227816267106</v>
       </c>
       <c r="M41" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="42">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>818662663.1281989</v>
+        <v>820486481.2163347</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2576,19 +2576,19 @@
         <v>2000000000</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4629613420894756</v>
+        <v>0.4639927281631779</v>
       </c>
       <c r="J42" t="n">
-        <v>28983972.45388184</v>
+        <v>29026307.48031211</v>
       </c>
       <c r="K42" t="n">
-        <v>-4.83360348335341</v>
+        <v>-4.286364419292049</v>
       </c>
       <c r="L42" t="n">
         <v>0.4693974301488583</v>
       </c>
       <c r="M42" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="43">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>826459057.647656</v>
+        <v>830844404.7240243</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2627,19 +2627,19 @@
         <v>100000000</v>
       </c>
       <c r="I43" t="n">
-        <v>8.350522850207907</v>
+        <v>8.394832293765267</v>
       </c>
       <c r="J43" t="n">
-        <v>40676004.1288185</v>
+        <v>40893045.25416165</v>
       </c>
       <c r="K43" t="n">
-        <v>-3.069835948097645</v>
+        <v>-2.545748285229634</v>
       </c>
       <c r="L43" t="n">
         <v>8.361410400480246</v>
       </c>
       <c r="M43" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="44">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2477431953.28222</v>
+        <v>2478927769.463691</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2678,19 +2678,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>5.129510832224722</v>
+        <v>5.132607912366804</v>
       </c>
       <c r="J44" t="n">
-        <v>41030111.036493</v>
+        <v>41018972.85359946</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.461736014031701</v>
+        <v>-1.178078577229872</v>
       </c>
       <c r="L44" t="n">
         <v>5.096855514132704</v>
       </c>
       <c r="M44" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="45">
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>607985183.6533706</v>
+        <v>608853422.7302326</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2729,19 +2729,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1639680861011174</v>
+        <v>0.1642022423002139</v>
       </c>
       <c r="J45" t="n">
-        <v>16218542.85560784</v>
+        <v>16249884.72448771</v>
       </c>
       <c r="K45" t="n">
-        <v>-1.273929450600674</v>
+        <v>-0.9270615597615772</v>
       </c>
       <c r="L45" t="n">
         <v>0.1607559931311421</v>
       </c>
       <c r="M45" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="46">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>619303950.9717766</v>
+        <v>619351409.6742076</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2780,19 +2780,19 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.98094918947253</v>
+        <v>1.981100994217141</v>
       </c>
       <c r="J46" t="n">
-        <v>21943095.2134035</v>
+        <v>22053999.33859777</v>
       </c>
       <c r="K46" t="n">
-        <v>-7.7774810791092</v>
+        <v>-7.266362009007187</v>
       </c>
       <c r="L46" t="n">
         <v>2.020898184940003</v>
       </c>
       <c r="M46" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="47">
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1036395025.000629</v>
+        <v>1042373555.02302</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2831,19 +2831,19 @@
         <v>3000000000</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3851465106838732</v>
+        <v>0.387368260037737</v>
       </c>
       <c r="J47" t="n">
-        <v>38088685.29962685</v>
+        <v>38680484.67884747</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.2820149391063747</v>
+        <v>0.3180912794744213</v>
       </c>
       <c r="L47" t="n">
         <v>0.3763142390885347</v>
       </c>
       <c r="M47" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="48">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>653018119.2961475</v>
+        <v>651584475.9770766</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2882,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1094482535602096</v>
+        <v>0.1092079696341377</v>
       </c>
       <c r="J48" t="n">
-        <v>16597249.8267699</v>
+        <v>19872443.81518633</v>
       </c>
       <c r="K48" t="n">
-        <v>2.676405481454314</v>
+        <v>3.32401915784494</v>
       </c>
       <c r="L48" t="n">
         <v>0.1055254130447434</v>
       </c>
       <c r="M48" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="49">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1672752758.847386</v>
+        <v>1676857733.536231</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2933,19 +2933,19 @@
         <v>28704026601</v>
       </c>
       <c r="I49" t="n">
-        <v>0.06441973673306001</v>
+        <v>0.0645778242850623</v>
       </c>
       <c r="J49" t="n">
-        <v>59998500.42421051</v>
+        <v>61816173.51772144</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.143811591811306</v>
+        <v>0.384263407278763</v>
       </c>
       <c r="L49" t="n">
         <v>0.0632990459714779</v>
       </c>
       <c r="M49" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="50">
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1285356232.028005</v>
+        <v>1286879157.824451</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2984,19 +2984,19 @@
         <v>200000000</v>
       </c>
       <c r="I50" t="n">
-        <v>10.27923831974108</v>
+        <v>10.29141744706382</v>
       </c>
       <c r="J50" t="n">
-        <v>1217508.487078589</v>
+        <v>1216683.847847668</v>
       </c>
       <c r="K50" t="n">
-        <v>-4.213039063629003</v>
+        <v>-4.007955618683986</v>
       </c>
       <c r="L50" t="n">
         <v>10.43305061215267</v>
       </c>
       <c r="M50" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="51">
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>745884760.9490639</v>
+        <v>747448705.8206316</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3035,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8307201970545026</v>
+        <v>0.8324620218777341</v>
       </c>
       <c r="J51" t="n">
-        <v>34490788.61104105</v>
+        <v>34517947.8388193</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.8197655482719808</v>
+        <v>-0.5589479244175191</v>
       </c>
       <c r="L51" t="n">
         <v>0.8159793681766345</v>
       </c>
       <c r="M51" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="52">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>6276792885.955726</v>
+        <v>6297023774.210812</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3086,19 +3086,19 @@
         <v>84000000</v>
       </c>
       <c r="I52" t="n">
-        <v>83.07199744566589</v>
+        <v>83.3397488798753</v>
       </c>
       <c r="J52" t="n">
-        <v>265371587.7937275</v>
+        <v>265851298.8778182</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.4287740138796887</v>
+        <v>0.4241671606118922</v>
       </c>
       <c r="L52" t="n">
         <v>82.71517919691371</v>
       </c>
       <c r="M52" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="53">
@@ -3126,7 +3126,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1092145367.243447</v>
+        <v>1094048852.565082</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3137,19 +3137,19 @@
         <v>1000000</v>
       </c>
       <c r="I53" t="n">
-        <v>1287.794259065776</v>
+        <v>1290.038738182694</v>
       </c>
       <c r="J53" t="n">
-        <v>27377109.15972532</v>
+        <v>27391612.03526568</v>
       </c>
       <c r="K53" t="n">
-        <v>-1.661933781147138</v>
+        <v>-1.324482813682636</v>
       </c>
       <c r="L53" t="n">
         <v>1281.430895086542</v>
       </c>
       <c r="M53" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="54">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2503052193.536201</v>
+        <v>2509934872.143909</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3188,19 +3188,19 @@
         <v>6219316795</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7439166559388459</v>
+        <v>0.7459622142643852</v>
       </c>
       <c r="J54" t="n">
-        <v>202166274.9902645</v>
+        <v>202445426.6152855</v>
       </c>
       <c r="K54" t="n">
-        <v>-4.647094109076543</v>
+        <v>-4.553085473920128</v>
       </c>
       <c r="L54" t="n">
         <v>0.7534957552303403</v>
       </c>
       <c r="M54" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="55">
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6196028586.126849</v>
+        <v>6191043531.272076</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3239,19 +3239,19 @@
         <v>888888888</v>
       </c>
       <c r="I55" t="n">
-        <v>6.356346111460417</v>
+        <v>6.351232072104223</v>
       </c>
       <c r="J55" t="n">
-        <v>58026177.51722552</v>
+        <v>57813788.57724552</v>
       </c>
       <c r="K55" t="n">
-        <v>0.6184479485832027</v>
+        <v>0.7872214547649776</v>
       </c>
       <c r="L55" t="n">
         <v>6.308726722416403</v>
       </c>
       <c r="M55" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="56">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3931065257.520929</v>
+        <v>3952889456.807546</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3290,19 +3290,19 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>213.103474619324</v>
+        <v>214.2865668332894</v>
       </c>
       <c r="J56" t="n">
-        <v>52449805.99647362</v>
+        <v>52411103.97532372</v>
       </c>
       <c r="K56" t="n">
-        <v>-1.626777394558356</v>
+        <v>-1.158713994888802</v>
       </c>
       <c r="L56" t="n">
         <v>212.8114129604267</v>
       </c>
       <c r="M56" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="57">
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>954913424.4212536</v>
+        <v>952334860.657215</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3341,19 +3341,19 @@
         <v>10000000000</v>
       </c>
       <c r="I57" t="n">
-        <v>0.38976058139643</v>
+        <v>0.3887081063907</v>
       </c>
       <c r="J57" t="n">
-        <v>53696732.15368436</v>
+        <v>55411526.05316635</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.0847266140628771</v>
+        <v>-0.3716086341973139</v>
       </c>
       <c r="L57" t="n">
         <v>0.3874908428413564</v>
       </c>
       <c r="M57" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="58">
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5364447321.737244</v>
+        <v>5364279939.315865</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9998256637076114</v>
+        <v>0.9997944669727922</v>
       </c>
       <c r="J58" t="n">
-        <v>92780679.4785596</v>
+        <v>101899902.210659</v>
       </c>
       <c r="K58" t="n">
-        <v>0.038123547615986</v>
+        <v>0.0123305690847124</v>
       </c>
       <c r="L58" t="n">
         <v>0.9999976015001149</v>
       </c>
       <c r="M58" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="59">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2981082309.786353</v>
+        <v>2987845446.324038</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3443,19 +3443,19 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>2.485761805909666</v>
+        <v>2.491401216280303</v>
       </c>
       <c r="J59" t="n">
-        <v>109715147.7172333</v>
+        <v>109819404.9594712</v>
       </c>
       <c r="K59" t="n">
-        <v>-1.755448623751174</v>
+        <v>-1.328758617936562</v>
       </c>
       <c r="L59" t="n">
         <v>2.457471527975619</v>
       </c>
       <c r="M59" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="60">
@@ -3483,7 +3483,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>682184567.3456371</v>
+        <v>681698637.0396736</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3494,19 +3494,19 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1.055774912664723</v>
+        <v>1.055022868348717</v>
       </c>
       <c r="J60" t="n">
-        <v>4806153.006861712</v>
+        <v>4848342.324438139</v>
       </c>
       <c r="K60" t="n">
-        <v>2.528331413344692</v>
+        <v>2.361196671439405</v>
       </c>
       <c r="L60" t="n">
         <v>1.038388646452243</v>
       </c>
       <c r="M60" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="61">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1888555568.331376</v>
+        <v>1886540877.231068</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3545,19 +3545,19 @@
         <v>999999993.45</v>
       </c>
       <c r="I61" t="n">
-        <v>9.442804896022693</v>
+        <v>9.432731411659841</v>
       </c>
       <c r="J61" t="n">
-        <v>164532598.2746134</v>
+        <v>164079928.1031789</v>
       </c>
       <c r="K61" t="n">
-        <v>1.026381076009996</v>
+        <v>1.120167927602142</v>
       </c>
       <c r="L61" t="n">
         <v>9.221849615705519</v>
       </c>
       <c r="M61" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="62">
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2810953916.108098</v>
+        <v>2811123801.963756</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3596,19 +3596,19 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>46.84923193513497</v>
+        <v>46.85206336606259</v>
       </c>
       <c r="J62" t="n">
-        <v>4838111.621212156</v>
+        <v>4840287.969850104</v>
       </c>
       <c r="K62" t="n">
-        <v>-2.265618568843636</v>
+        <v>-2.153339294661404</v>
       </c>
       <c r="L62" t="n">
         <v>46.09820033733401</v>
       </c>
       <c r="M62" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="63">
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2591081900.313638</v>
+        <v>2586208908.081504</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3647,19 +3647,19 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8201942721252772</v>
+        <v>0.8186517503252433</v>
       </c>
       <c r="J63" t="n">
-        <v>197769450.8406273</v>
+        <v>199688328.0412175</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5615920374035313</v>
+        <v>0.8229652787207277</v>
       </c>
       <c r="L63" t="n">
         <v>0.8025796211358724</v>
       </c>
       <c r="M63" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="64">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1133837952.119644</v>
+        <v>1137944283.31947</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3698,19 +3698,19 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6995951516544625</v>
+        <v>0.7021288200619413</v>
       </c>
       <c r="J64" t="n">
-        <v>75173817.32362688</v>
+        <v>75984848.14854451</v>
       </c>
       <c r="K64" t="n">
-        <v>-1.94553301800558</v>
+        <v>-1.549214085708974</v>
       </c>
       <c r="L64" t="n">
         <v>0.6885122818490065</v>
       </c>
       <c r="M64" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="65">
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>534145750.3932222</v>
+        <v>534658843.8775095</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3749,19 +3749,19 @@
         <v>450000000</v>
       </c>
       <c r="I65" t="n">
-        <v>1.807053161062008</v>
+        <v>1.808788992905693</v>
       </c>
       <c r="J65" t="n">
-        <v>33374111.71897752</v>
+        <v>33385706.48272027</v>
       </c>
       <c r="K65" t="n">
-        <v>-3.27570150221055</v>
+        <v>-2.938498663857601</v>
       </c>
       <c r="L65" t="n">
         <v>1.805552562909577</v>
       </c>
       <c r="M65" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="66">
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>656348326.5746477</v>
+        <v>656166222.6006479</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3800,19 +3800,19 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3119.953036231133</v>
+        <v>3119.087404639512</v>
       </c>
       <c r="J66" t="n">
-        <v>64848201.34491014</v>
+        <v>64831240.49260662</v>
       </c>
       <c r="K66" t="n">
-        <v>-2.003339005714321</v>
+        <v>-1.945700387291404</v>
       </c>
       <c r="L66" t="n">
         <v>3124.018588893691</v>
       </c>
       <c r="M66" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="67">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>758382202.9796824</v>
+        <v>757701482.3358722</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3851,19 +3851,19 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9999088688716484</v>
+        <v>0.9990113549185312</v>
       </c>
       <c r="J67" t="n">
-        <v>14954437.1756035</v>
+        <v>12273241.24686895</v>
       </c>
       <c r="K67" t="n">
-        <v>0.1654347863220956</v>
+        <v>0.0843922814205772</v>
       </c>
       <c r="L67" t="n">
         <v>0.9987240307708662</v>
       </c>
       <c r="M67" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="68">
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2828676423.398164</v>
+        <v>2833157119.960022</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3902,19 +3902,19 @@
         <v>420690000000000</v>
       </c>
       <c r="I68" t="n">
-        <v>6.7238990661e-06</v>
+        <v>6.734549896e-06</v>
       </c>
       <c r="J68" t="n">
-        <v>607419249.1765057</v>
+        <v>611384905.9612848</v>
       </c>
       <c r="K68" t="n">
-        <v>-6.545735208597561</v>
+        <v>-6.211529995540087</v>
       </c>
       <c r="L68" t="n">
         <v>6.7452907851e-06</v>
       </c>
       <c r="M68" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="69">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3826504636.55301</v>
+        <v>3802060652.464745</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3953,19 +3953,19 @@
         <v>100000000000</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5632098512858582</v>
+        <v>0.5596120266519418</v>
       </c>
       <c r="J69" t="n">
-        <v>170035690.4299406</v>
+        <v>169550326.6105341</v>
       </c>
       <c r="K69" t="n">
-        <v>-16.14139805455092</v>
+        <v>-16.46816481399672</v>
       </c>
       <c r="L69" t="n">
         <v>0.8041652307723401</v>
       </c>
       <c r="M69" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="70">
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>6122622118.242289</v>
+        <v>6129985585.660106</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4004,19 +4004,19 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>4.022042044476932</v>
+        <v>4.026879216357809</v>
       </c>
       <c r="J70" t="n">
-        <v>118856607.563993</v>
+        <v>119167701.4329621</v>
       </c>
       <c r="K70" t="n">
-        <v>-1.120321892284283</v>
+        <v>-0.7529575919474722</v>
       </c>
       <c r="L70" t="n">
         <v>3.983208329433817</v>
       </c>
       <c r="M70" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="71">
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1976558181.292787</v>
+        <v>1978702466.497413</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4055,19 +4055,19 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1901981559903554</v>
+        <v>0.1904044940054451</v>
       </c>
       <c r="J71" t="n">
-        <v>47652838.39387151</v>
+        <v>47581495.4844204</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.0105678979593152</v>
+        <v>0.2955885086611611</v>
       </c>
       <c r="L71" t="n">
         <v>0.1859933339740156</v>
       </c>
       <c r="M71" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="72">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>823170158.1293001</v>
+        <v>824480212.14785</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4106,19 +4106,19 @@
         <v>14881364</v>
       </c>
       <c r="I72" t="n">
-        <v>68.18421456088089</v>
+        <v>68.29272797503351</v>
       </c>
       <c r="J72" t="n">
-        <v>17204987.56875176</v>
+        <v>17256895.84357154</v>
       </c>
       <c r="K72" t="n">
-        <v>2.924317380180441</v>
+        <v>3.16450647656624</v>
       </c>
       <c r="L72" t="n">
         <v>67.43452257779391</v>
       </c>
       <c r="M72" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="73">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1695536295.247552</v>
+        <v>1698217304.890254</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4157,19 +4157,19 @@
         <v>644168762</v>
       </c>
       <c r="I73" t="n">
-        <v>3.27502793577317</v>
+        <v>3.280206463357945</v>
       </c>
       <c r="J73" t="n">
-        <v>66891504.14211256</v>
+        <v>67020751.59361698</v>
       </c>
       <c r="K73" t="n">
-        <v>-3.561122479303643</v>
+        <v>-3.458395830567619</v>
       </c>
       <c r="L73" t="n">
         <v>3.255641069882064</v>
       </c>
       <c r="M73" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="74">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>802491995.0196371</v>
+        <v>805652785.9603587</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4208,19 +4208,19 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1643655552662043</v>
+        <v>0.1650129450984722</v>
       </c>
       <c r="J74" t="n">
-        <v>52797208.43061333</v>
+        <v>52955581.18093582</v>
       </c>
       <c r="K74" t="n">
-        <v>-1.654376194476819</v>
+        <v>-1.181492910754945</v>
       </c>
       <c r="L74" t="n">
         <v>0.1623764884374243</v>
       </c>
       <c r="M74" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="75">
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>7149207058.835785</v>
+        <v>7159684628.490468</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4259,19 +4259,19 @@
         <v>589552695333683</v>
       </c>
       <c r="I75" t="n">
-        <v>1.21327096448e-05</v>
+        <v>1.2150490821e-05</v>
       </c>
       <c r="J75" t="n">
-        <v>91280763.44489278</v>
+        <v>91504699.12167358</v>
       </c>
       <c r="K75" t="n">
-        <v>-1.69020293345146</v>
+        <v>-1.365618236249032</v>
       </c>
       <c r="L75" t="n">
         <v>1.21774413298e-05</v>
       </c>
       <c r="M75" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="76">
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>59430679232.17687</v>
+        <v>59533179397.05877</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4310,19 +4310,19 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>115.5226092185693</v>
+        <v>115.721851203441</v>
       </c>
       <c r="J76" t="n">
-        <v>2525427124.35488</v>
+        <v>2528339967.695269</v>
       </c>
       <c r="K76" t="n">
-        <v>-3.594384912688092</v>
+        <v>-3.271432280360046</v>
       </c>
       <c r="L76" t="n">
         <v>116.3585335323666</v>
       </c>
       <c r="M76" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="77">
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>883431904.5986801</v>
+        <v>882723897.8018025</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4361,19 +4361,19 @@
         <v>1818000000</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5812396411934291</v>
+        <v>0.5807738196463043</v>
       </c>
       <c r="J77" t="n">
-        <v>17268145.20697617</v>
+        <v>17325440.3843144</v>
       </c>
       <c r="K77" t="n">
-        <v>-1.88619733834752</v>
+        <v>-1.707681238172091</v>
       </c>
       <c r="L77" t="n">
         <v>0.578198447402745</v>
       </c>
       <c r="M77" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="78">
@@ -4401,7 +4401,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>7982481164.935516</v>
+        <v>8010382263.904924</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4412,19 +4412,19 @@
         <v>50001806812</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2593519731708447</v>
+        <v>0.2602584839313257</v>
       </c>
       <c r="J78" t="n">
-        <v>79689196.59235348</v>
+        <v>79422563.76715131</v>
       </c>
       <c r="K78" t="n">
-        <v>-1.411471254320873</v>
+        <v>-1.124844723689366</v>
       </c>
       <c r="L78" t="n">
         <v>0.258734963704225</v>
       </c>
       <c r="M78" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="79">
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>9374205.46261983</v>
+        <v>9374253.737797299</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>16853468197.57886</v>
+        <v>16837482100.90499</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4463,19 +4463,19 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1797.855643849819</v>
+        <v>1796.141065929942</v>
       </c>
       <c r="J79" t="n">
-        <v>8591236.629193015</v>
+        <v>8256950.420097835</v>
       </c>
       <c r="K79" t="n">
-        <v>-1.773799994833026</v>
+        <v>-1.671939478331937</v>
       </c>
       <c r="L79" t="n">
         <v>1791.56336573935</v>
       </c>
       <c r="M79" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="80">
@@ -4503,7 +4503,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1086778652.242712</v>
+        <v>1088034541.022287</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4514,19 +4514,19 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>4.194903346465778</v>
+        <v>4.19975100521704</v>
       </c>
       <c r="J80" t="n">
-        <v>42801485.16731184</v>
+        <v>42945306.7501839</v>
       </c>
       <c r="K80" t="n">
-        <v>-6.275937203695041</v>
+        <v>-6.124858230323244</v>
       </c>
       <c r="L80" t="n">
         <v>4.297879927114833</v>
       </c>
       <c r="M80" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="81">
@@ -4554,7 +4554,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>7190619044.423847</v>
+        <v>7195598533.846197</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4565,19 +4565,19 @@
         <v>10000000000</v>
       </c>
       <c r="I81" t="n">
-        <v>2.212509808408085</v>
+        <v>2.214041967060873</v>
       </c>
       <c r="J81" t="n">
-        <v>842236546.6902477</v>
+        <v>844287187.0155004</v>
       </c>
       <c r="K81" t="n">
-        <v>-8.133319049495357</v>
+        <v>-7.924282919704543</v>
       </c>
       <c r="L81" t="n">
         <v>2.278888869768251</v>
       </c>
       <c r="M81" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="82">
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>144232177004.9569</v>
+        <v>144167887216.4139</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4616,19 +4616,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1.001009788046292</v>
+        <v>1.000563599761963</v>
       </c>
       <c r="J82" t="n">
-        <v>33326605272.696</v>
+        <v>33173819266.93125</v>
       </c>
       <c r="K82" t="n">
-        <v>0.1253355354126054</v>
+        <v>0.1359647693297703</v>
       </c>
       <c r="L82" t="n">
         <v>1.000186847194892</v>
       </c>
       <c r="M82" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="83">
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>770886899.9651258</v>
+        <v>770838100.0799955</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4667,19 +4667,19 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>3127.025766112532</v>
+        <v>3126.827814249304</v>
       </c>
       <c r="J83" t="n">
-        <v>24308559.47933688</v>
+        <v>24303703.91231368</v>
       </c>
       <c r="K83" t="n">
-        <v>-1.608227973944096</v>
+        <v>-1.589784541977116</v>
       </c>
       <c r="L83" t="n">
         <v>3138.661349929444</v>
       </c>
       <c r="M83" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="84">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>672914491.5901417</v>
+        <v>674734612.2559657</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4718,19 +4718,19 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.6485090480513932</v>
+        <v>0.6502631560919898</v>
       </c>
       <c r="J84" t="n">
-        <v>16183826.106384</v>
+        <v>15915363.77644536</v>
       </c>
       <c r="K84" t="n">
-        <v>-2.132803069756521</v>
+        <v>-1.779682261027252</v>
       </c>
       <c r="L84" t="n">
         <v>0.6516303674777812</v>
       </c>
       <c r="M84" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="85">
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>803987176.054563</v>
+        <v>805832036.9772431</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4769,19 +4769,19 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0822477305691922</v>
+        <v>0.0824364594800821</v>
       </c>
       <c r="J85" t="n">
-        <v>15552392.4943102</v>
+        <v>15634287.77467085</v>
       </c>
       <c r="K85" t="n">
-        <v>-2.78651195406987</v>
+        <v>-2.367433876418737</v>
       </c>
       <c r="L85" t="n">
         <v>0.0823187111796653</v>
       </c>
       <c r="M85" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="86">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>647815934.4841284</v>
+        <v>649486304.218258</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4820,19 +4820,19 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2610732359473454</v>
+        <v>0.2617464037539771</v>
       </c>
       <c r="J86" t="n">
-        <v>17802608.35254535</v>
+        <v>17853658.68626584</v>
       </c>
       <c r="K86" t="n">
-        <v>-1.020153167917938</v>
+        <v>-0.578465178960624</v>
       </c>
       <c r="L86" t="n">
         <v>0.2593811432076112</v>
       </c>
       <c r="M86" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="87">
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>779391668.7351254</v>
+        <v>781445825.702072</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4871,19 +4871,19 @@
         <v>1000000000</v>
       </c>
       <c r="I87" t="n">
-        <v>0.7793916687351256</v>
+        <v>0.781445825702072</v>
       </c>
       <c r="J87" t="n">
-        <v>15632203.65506271</v>
+        <v>15637816.44556055</v>
       </c>
       <c r="K87" t="n">
-        <v>-2.750453165302337</v>
+        <v>-2.210438070357117</v>
       </c>
       <c r="L87" t="n">
         <v>0.7820274086110005</v>
       </c>
       <c r="M87" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="88">
@@ -4911,7 +4911,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>8694959472.116371</v>
+        <v>8721616735.176374</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4922,19 +4922,19 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>3.515945208230793</v>
+        <v>3.526724496693372</v>
       </c>
       <c r="J88" t="n">
-        <v>127467371.1532184</v>
+        <v>127568567.0513076</v>
       </c>
       <c r="K88" t="n">
-        <v>-8.133798657594477</v>
+        <v>-7.615756242879022</v>
       </c>
       <c r="L88" t="n">
         <v>3.635128036242974</v>
       </c>
       <c r="M88" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="89">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>22679918094.50926</v>
+        <v>22706495702.73655</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4973,19 +4973,19 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2387796045245121</v>
+        <v>0.2390594199433895</v>
       </c>
       <c r="J89" t="n">
-        <v>265942595.2094364</v>
+        <v>265911906.2840599</v>
       </c>
       <c r="K89" t="n">
-        <v>1.164108343530092</v>
+        <v>1.184565751046026</v>
       </c>
       <c r="L89" t="n">
         <v>0.2355714971535056</v>
       </c>
       <c r="M89" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="90">
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3670315024.796194</v>
+        <v>3681192143.871577</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5024,19 +5024,19 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>5.839856395284045</v>
+        <v>5.857163033260759</v>
       </c>
       <c r="J90" t="n">
-        <v>71898587.64939344</v>
+        <v>75539850.01368834</v>
       </c>
       <c r="K90" t="n">
-        <v>-2.512200257502259</v>
+        <v>-2.186981964747457</v>
       </c>
       <c r="L90" t="n">
         <v>5.855884599483908</v>
       </c>
       <c r="M90" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="91">
@@ -5064,7 +5064,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>8801225034.959442</v>
+        <v>8800913359.149023</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5075,19 +5075,19 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>9.527158490718669</v>
+        <v>9.526821107589409</v>
       </c>
       <c r="J91" t="n">
-        <v>4465538.032994277</v>
+        <v>4483217.514480576</v>
       </c>
       <c r="K91" t="n">
-        <v>1.778841309198131</v>
+        <v>1.817628343278382</v>
       </c>
       <c r="L91" t="n">
         <v>9.188961738686428</v>
       </c>
       <c r="M91" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="92">
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>60787223223.35472</v>
+        <v>60828634979.1779</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5126,19 +5126,19 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9986370857550242</v>
+        <v>0.999317414826798</v>
       </c>
       <c r="J92" t="n">
-        <v>7313590304.825809</v>
+        <v>7498615302.296947</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.1630551898069191</v>
+        <v>-0.0841522242964103</v>
       </c>
       <c r="L92" t="n">
         <v>1.000267073912233</v>
       </c>
       <c r="M92" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="93">
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>843387801.7890285</v>
+        <v>843406096.0131915</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5177,19 +5177,19 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.997390448670014</v>
+        <v>0.9974120834202528</v>
       </c>
       <c r="J93" t="n">
-        <v>34169057.31304596</v>
+        <v>35783766.20595057</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.0319071344452438</v>
+        <v>-0.0218304230811462</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="94">
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1864437882.203944</v>
+        <v>1866661757.112612</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -5228,19 +5228,19 @@
         <v>86712634466</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0216832818439431</v>
+        <v>0.0217091453532027</v>
       </c>
       <c r="J94" t="n">
-        <v>24633194.03458522</v>
+        <v>24724746.31609753</v>
       </c>
       <c r="K94" t="n">
-        <v>-1.781845966916202</v>
+        <v>-1.396363783647623</v>
       </c>
       <c r="L94" t="n">
         <v>0.0215746159394813</v>
       </c>
       <c r="M94" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="95">
@@ -5268,7 +5268,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>955007735.6766</v>
+        <v>957543131.8998387</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5279,19 +5279,19 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>603.3337944966488</v>
+        <v>604.9355513901</v>
       </c>
       <c r="J95" t="n">
-        <v>10242295.58107941</v>
+        <v>10186945.67838719</v>
       </c>
       <c r="K95" t="n">
-        <v>0.41775367869116</v>
+        <v>0.7006399519626387</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="96">
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>6087581874.875412</v>
+        <v>6085601183.095393</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5330,19 +5330,19 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1803.558245344721</v>
+        <v>1802.971428926517</v>
       </c>
       <c r="J96" t="n">
-        <v>351634607.8866503</v>
+        <v>558404759.165827</v>
       </c>
       <c r="K96" t="n">
-        <v>-1.391496265489021</v>
+        <v>-1.16296771053447</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="97">
@@ -5370,7 +5370,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>929076727.5117805</v>
+        <v>931258904.8206109</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5381,19 +5381,19 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.757600927317264</v>
+        <v>0.7593803493001698</v>
       </c>
       <c r="J97" t="n">
-        <v>89294132.28846624</v>
+        <v>89368347.89811073</v>
       </c>
       <c r="K97" t="n">
-        <v>1.051734523715445</v>
+        <v>1.075035944090006</v>
       </c>
       <c r="L97" t="n">
         <v>0.738976151135768</v>
       </c>
       <c r="M97" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="98">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>10659287443.14686</v>
+        <v>10657415753.52441</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5432,19 +5432,19 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>82580.58333330203</v>
+        <v>82566.08281235587</v>
       </c>
       <c r="J98" t="n">
-        <v>171204770.0022462</v>
+        <v>170500205.5803995</v>
       </c>
       <c r="K98" t="n">
-        <v>-1.117992187432429</v>
+        <v>-0.878227785928123</v>
       </c>
       <c r="L98" t="n">
         <v>81707.82641790783</v>
       </c>
       <c r="M98" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="99">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1047134886.01604</v>
+        <v>1051758568.414132</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5483,19 +5483,19 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.0667277095610512</v>
+        <v>0.0670223494782984</v>
       </c>
       <c r="J99" t="n">
-        <v>26877605.16282525</v>
+        <v>26774304.02031543</v>
       </c>
       <c r="K99" t="n">
-        <v>0.6577119765427367</v>
+        <v>1.067244925619107</v>
       </c>
       <c r="L99" t="n">
         <v>0.0657912389006506</v>
       </c>
       <c r="M99" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="100">
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>119781574734.2609</v>
+        <v>120175935170.5374</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5534,19 +5534,19 @@
         <v>100000000000</v>
       </c>
       <c r="I100" t="n">
-        <v>2.055454775980273</v>
+        <v>2.062222010790805</v>
       </c>
       <c r="J100" t="n">
-        <v>2176951429.442692</v>
+        <v>2186391430.942505</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.055629446919071</v>
+        <v>0.5147830737195366</v>
       </c>
       <c r="L100" t="n">
         <v>2.030981116534392</v>
       </c>
       <c r="M100" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="101">
@@ -5574,7 +5574,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>617493289.6408389</v>
+        <v>617379057.857505</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5585,19 +5585,19 @@
         <v>21000000</v>
       </c>
       <c r="I101" t="n">
-        <v>38.86827261670783</v>
+        <v>38.86108226796946</v>
       </c>
       <c r="J101" t="n">
-        <v>17589606.82435981</v>
+        <v>17613058.55049062</v>
       </c>
       <c r="K101" t="n">
-        <v>-1.811229938871117</v>
+        <v>-1.271423887631382</v>
       </c>
       <c r="L101" t="n">
         <v>38.89558096499874</v>
       </c>
       <c r="M101" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
   </sheetData>
